--- a/financial_model.xlsx
+++ b/financial_model.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Operating Expenses" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ROI Timeline" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Executive Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Phased Build Plan" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -76,13 +77,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -448,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,18 +511,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 MW</t>
+          <t>1.5 MW</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3000000</v>
+        <v>1800000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bitcoin mining hardware</t>
+          <t>Bitcoin mining hardware - Phase I</t>
         </is>
       </c>
     </row>
@@ -541,14 +543,14 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AI/ML workloads</t>
+          <t>AI/ML workloads - modular</t>
         </is>
       </c>
     </row>
@@ -565,14 +567,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1000000</v>
+        <v>375000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -593,14 +595,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1500000</v>
+        <v>250000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -618,7 +620,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8000000</v>
+        <v>4425000</v>
       </c>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -635,14 +637,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5000 sq ft</t>
+          <t>2500 sq ft</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2000000</v>
+        <v>750000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,10 +669,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -695,10 +697,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -716,7 +718,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2750000</v>
+        <v>1050000</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -733,14 +735,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -761,18 +763,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2 MW</t>
+          <t>1 MW</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rooftop and ground mount</t>
+          <t>Backup and peak shaving</t>
         </is>
       </c>
     </row>
@@ -789,14 +791,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1000 kWh</t>
+          <t>500 kWh</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -817,18 +819,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 MW</t>
+          <t>1 MW</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Backup power</t>
+          <t>Emergency backup</t>
         </is>
       </c>
     </row>
@@ -845,14 +847,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,14 +875,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -898,7 +900,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>28000000</v>
+        <v>6900000</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -912,7 +914,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>38750000</v>
+        <v>12375000</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -930,7 +932,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>5812500</v>
+        <v>1856250</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -944,29 +946,51 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Total CapEx:</t>
+          <t>Pre-Contingency Total:</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44562500</v>
+        <v>14231250</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Value Engineering</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Target CapEx:</t>
-        </is>
-      </c>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>32000000</v>
+        <v>-11031250</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Scaled to budget</t>
+          <t>Modular approach savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Phase I Target CapEx:</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Investor-ready budget</t>
         </is>
       </c>
     </row>
@@ -1036,19 +1060,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>100500</v>
+        <v>56000</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1206000</v>
+        <v>672000</v>
       </c>
     </row>
     <row r="3">
@@ -1058,19 +1082,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>80399.99999999999</v>
+        <v>40199.99999999999</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>19063.87274398082</v>
+        <v>14297.90455798562</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2525</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>101988.8727439808</v>
+        <v>57022.90455798561</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1223866.47292777</v>
+        <v>684274.8546958274</v>
       </c>
     </row>
     <row r="4">
@@ -1080,19 +1104,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>80800</v>
+        <v>40400</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>20032.71290422213</v>
+        <v>15024.53467816659</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2550</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>103382.7129042221</v>
+        <v>57974.53467816659</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1240592.554850666</v>
+        <v>695694.4161379992</v>
       </c>
     </row>
     <row r="5">
@@ -1102,19 +1126,19 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>81199.99999999999</v>
+        <v>40599.99999999999</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>20819.97687465894</v>
+        <v>15614.9826559942</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2575</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>104594.9768746589</v>
+        <v>58789.9826559942</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1255139.722495907</v>
+        <v>705479.7918719305</v>
       </c>
     </row>
     <row r="6">
@@ -1124,19 +1148,19 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>81600</v>
+        <v>40800</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>21355.34070948202</v>
+        <v>16016.50553211151</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2600</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>105555.340709482</v>
+        <v>59416.50553211151</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1266664.088513784</v>
+        <v>712998.0663853382</v>
       </c>
     </row>
     <row r="7">
@@ -1146,19 +1170,19 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>82000</v>
+        <v>41000</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>21590.9819517746</v>
+        <v>16193.23646383095</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>2625</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>106215.9819517746</v>
+        <v>59818.23646383095</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1274591.783421295</v>
+        <v>717818.8375659714</v>
       </c>
     </row>
     <row r="8">
@@ -1168,19 +1192,19 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>82400</v>
+        <v>41200</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21505.8514711615</v>
+        <v>16129.38860337113</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>2650</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>106555.8514711615</v>
+        <v>59979.38860337112</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1278670.217653938</v>
+        <v>719752.6632404535</v>
       </c>
     </row>
     <row r="9">
@@ -1190,19 +1214,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>82800</v>
+        <v>41400</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>21107.55371993595</v>
+        <v>15830.66528995196</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2675</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>106582.5537199359</v>
+        <v>59905.66528995196</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1278990.644639231</v>
+        <v>718867.9834794236</v>
       </c>
     </row>
     <row r="10">
@@ -1212,19 +1236,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>83200</v>
+        <v>41600</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>20431.66744998414</v>
+        <v>15323.75058748811</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2700</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>106331.6674499841</v>
+        <v>59623.75058748811</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1275980.00939981</v>
+        <v>715485.0070498573</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1258,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>83600</v>
+        <v>41800</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>19538.56756884179</v>
+        <v>14653.92567663134</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>2725</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>105863.5675688418</v>
+        <v>59178.92567663134</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1270362.810826102</v>
+        <v>710147.1081195761</v>
       </c>
     </row>
     <row r="12">
@@ -1256,19 +1280,19 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>84000</v>
+        <v>42000</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>18508.03202901552</v>
+        <v>13881.02402176164</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>2750</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>105258.0320290155</v>
+        <v>58631.02402176164</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1263096.384348186</v>
+        <v>703572.2882611396</v>
       </c>
     </row>
     <row r="13">
@@ -1278,19 +1302,19 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>84400</v>
+        <v>42200</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>17432.11550108431</v>
+        <v>13074.08662581323</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2775</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>104607.1155010843</v>
+        <v>58049.08662581323</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1255285.386013012</v>
+        <v>696589.0395097588</v>
       </c>
     </row>
     <row r="14">
@@ -1300,19 +1324,19 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>84800</v>
+        <v>42400</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>16406.92640413853</v>
+        <v>12305.1948031039</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2800</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>104006.9264041385</v>
+        <v>57505.1948031039</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1248083.116849662</v>
+        <v>690062.3376372468</v>
       </c>
     </row>
     <row r="15">
@@ -1322,19 +1346,19 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>85200</v>
+        <v>42600</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>15524.04182693769</v>
+        <v>11643.03137020327</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2825</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>103549.0418269377</v>
+        <v>57068.03137020327</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1242588.501923252</v>
+        <v>684816.3764424393</v>
       </c>
     </row>
     <row r="16">
@@ -1344,19 +1368,19 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>85600</v>
+        <v>42800</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>14862.32721931108</v>
+        <v>11146.74541448331</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>2850</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>103312.3272193111</v>
+        <v>56796.74541448331</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1239747.926631733</v>
+        <v>681560.9449737997</v>
       </c>
     </row>
     <row r="17">
@@ -1366,19 +1390,19 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>86000</v>
+        <v>43000</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>14480.89157640565</v>
+        <v>10860.66868230424</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>2875</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>103355.8915764056</v>
+        <v>56735.66868230424</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1240270.698916868</v>
+        <v>680828.0241876509</v>
       </c>
     </row>
     <row r="18">
@@ -1388,19 +1412,19 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>14413.80740819097</v>
+        <v>10810.35555614323</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>2900</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>103713.807408191</v>
+        <v>56910.35555614323</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1244565.688898292</v>
+        <v>682924.2666737188</v>
       </c>
     </row>
     <row r="19">
@@ -1410,19 +1434,19 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>86800</v>
+        <v>43400</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>14667.06714362016</v>
+        <v>11000.30035771512</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>2925</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>104392.0671436202</v>
+        <v>57325.30035771512</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1252704.805723442</v>
+        <v>687903.6042925816</v>
       </c>
     </row>
     <row r="20">
@@ -1432,19 +1456,19 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>87200</v>
+        <v>43600</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>15218.04784479844</v>
+        <v>11413.53588359883</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>2950</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>105368.0478447984</v>
+        <v>57963.53588359883</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1264416.574137582</v>
+        <v>695562.4306031859</v>
       </c>
     </row>
     <row r="21">
@@ -1454,19 +1478,19 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>87600</v>
+        <v>43800</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>16017.5320466485</v>
+        <v>12013.14903498638</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2975</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>106592.5320466485</v>
+        <v>58788.14903498637</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1279110.384559782</v>
+        <v>705457.7884198364</v>
       </c>
     </row>
     <row r="22">
@@ -1476,19 +1500,19 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>88000</v>
+        <v>44000</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>16994.10420648387</v>
+        <v>12745.5781548629</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>3000</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>107994.1042064839</v>
+        <v>59745.5781548629</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1295929.250477806</v>
+        <v>716946.9378583548</v>
       </c>
     </row>
     <row r="23">
@@ -1498,19 +1522,19 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>88400</v>
+        <v>44200</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>18060.53004174366</v>
+        <v>13545.39753130774</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3025</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>109485.5300417437</v>
+        <v>60770.39753130774</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1313826.360500924</v>
+        <v>729244.7703756929</v>
       </c>
     </row>
     <row r="24">
@@ -1520,19 +1544,19 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>88800.00000000001</v>
+        <v>44400.00000000001</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>19121.54890864816</v>
+        <v>14341.16168148612</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3050</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>110971.5489086482</v>
+        <v>61791.16168148613</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1331658.586903778</v>
+        <v>741493.9401778335</v>
       </c>
     </row>
     <row r="25">
@@ -1542,19 +1566,19 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>89200</v>
+        <v>44600</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>20082.38315179752</v>
+        <v>15061.78736384814</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>3075</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>112357.3831517975</v>
+        <v>62736.78736384814</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1348288.59782157</v>
+        <v>752841.4483661777</v>
       </c>
     </row>
     <row r="26">
@@ -1564,19 +1588,19 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>89600.00000000001</v>
+        <v>44800.00000000001</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>20857.20430985695</v>
+        <v>15642.90323239271</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>3100</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>113557.204309857</v>
+        <v>63542.90323239272</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1362686.451718283</v>
+        <v>762514.8387887126</v>
       </c>
     </row>
     <row r="27">
@@ -1586,19 +1610,19 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>21376.79991638906</v>
+        <v>16032.5999372918</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3125</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>114501.7999163891</v>
+        <v>64157.59993729179</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1374021.598996669</v>
+        <v>769891.1992475016</v>
       </c>
     </row>
     <row r="28">
@@ -1608,19 +1632,19 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>90399.99999999999</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>21594.75604334858</v>
+        <v>16196.06703251143</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3150</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>115144.7560433486</v>
+        <v>64546.06703251143</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1381737.072520183</v>
+        <v>774552.8043901371</v>
       </c>
     </row>
     <row r="29">
@@ -1630,19 +1654,19 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>90800</v>
+        <v>45400</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>21491.60331904231</v>
+        <v>16118.70248928173</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>3175</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>115466.6033190423</v>
+        <v>64693.70248928173</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1385599.239828508</v>
+        <v>776324.4298713808</v>
       </c>
     </row>
     <row r="30">
@@ -1652,19 +1676,19 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>91200.00000000001</v>
+        <v>45600.00000000001</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>21076.55606911781</v>
+        <v>15807.41705183836</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>3200</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>115476.5560691178</v>
+        <v>64607.41705183836</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1385718.672829414</v>
+        <v>775289.0046220603</v>
       </c>
     </row>
     <row r="31">
@@ -1674,19 +1698,19 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>91600</v>
+        <v>45800</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>20386.68922829586</v>
+        <v>15290.0169212219</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>3225</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>115211.6892282959</v>
+        <v>64315.0169212219</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1382540.27073955</v>
+        <v>771780.2030546628</v>
       </c>
     </row>
     <row r="32">
@@ -1696,19 +1720,19 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>92000</v>
+        <v>46000</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>19483.62654687032</v>
+        <v>14612.71991015274</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>3250</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>114733.6265468703</v>
+        <v>63862.71991015274</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1376803.518562444</v>
+        <v>766352.6389218329</v>
       </c>
     </row>
     <row r="33">
@@ -1718,19 +1742,19 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>92400</v>
+        <v>46200</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>18448.03592462543</v>
+        <v>13836.02694346907</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>3275</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>114123.0359246254</v>
+        <v>63311.02694346907</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1369476.431095505</v>
+        <v>759732.3233216288</v>
       </c>
     </row>
     <row r="34">
@@ -1740,19 +1764,19 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>92800</v>
+        <v>46400</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>17372.42358759727</v>
+        <v>13029.31769069796</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>3300</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>113472.4235875973</v>
+        <v>62729.31769069796</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1361669.083051167</v>
+        <v>752751.8122883755</v>
       </c>
     </row>
     <row r="35">
@@ -1762,19 +1786,19 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>93200</v>
+        <v>46600</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>16352.87078240884</v>
+        <v>12264.65308680663</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>3325</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>112877.8707824088</v>
+        <v>62189.65308680663</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1354534.449388906</v>
+        <v>746275.8370416795</v>
       </c>
     </row>
     <row r="36">
@@ -1784,19 +1808,19 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>93600</v>
+        <v>46800</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>15480.45112466325</v>
+        <v>11610.33834349743</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>3350</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>112430.4511246632</v>
+        <v>61760.33834349744</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1349165.413495959</v>
+        <v>741124.0601219693</v>
       </c>
     </row>
     <row r="37">
@@ -1806,19 +1830,19 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>94000</v>
+        <v>47000</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>14833.09526410199</v>
+        <v>11124.82144807649</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>3375</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>112208.095264102</v>
+        <v>61499.82144807649</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1346497.143169224</v>
+        <v>737997.8573769178</v>
       </c>
     </row>
     <row r="38">
@@ -1828,19 +1852,19 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>94400</v>
+        <v>47200</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>14468.62957176063</v>
+        <v>10851.47217882047</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>3400</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>112268.6295717606</v>
+        <v>61451.47217882048</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1347223.554861127</v>
+        <v>737417.6661458458</v>
       </c>
     </row>
     <row r="39">
@@ -1850,19 +1874,19 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>94800</v>
+        <v>47400</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>14419.61068246564</v>
+        <v>10814.70801184923</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>3425</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>112644.6106824656</v>
+        <v>61639.70801184923</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1351735.328189588</v>
+        <v>739676.4961421908</v>
       </c>
     </row>
     <row r="40">
@@ -1872,19 +1896,19 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>95200</v>
+        <v>47600</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>14690.41730760717</v>
+        <v>11017.81298070538</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>3450</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>113340.4173076072</v>
+        <v>62067.81298070538</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1360085.007691286</v>
+        <v>744813.7557684645</v>
       </c>
     </row>
     <row r="41">
@@ -1894,19 +1918,19 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>95600</v>
+        <v>47800</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>15256.85909789148</v>
+        <v>11442.64432341861</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>3475</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>114331.8590978915</v>
+        <v>62717.64432341861</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1371982.309174698</v>
+        <v>752611.7318810233</v>
       </c>
     </row>
     <row r="42">
@@ -1916,19 +1940,19 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>96000</v>
+        <v>48000</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>16068.33749519843</v>
+        <v>12051.25312139882</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>3500</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>115568.3374951984</v>
+        <v>63551.25312139883</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1386820.049942381</v>
+        <v>762615.0374567859</v>
       </c>
     </row>
     <row r="43">
@@ -1938,19 +1962,19 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>96400</v>
+        <v>48200</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>17052.36555108311</v>
+        <v>12789.27416331233</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>3525</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>116977.3655510831</v>
+        <v>64514.27416331234</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1403728.386612997</v>
+        <v>774171.289959748</v>
       </c>
     </row>
     <row r="44">
@@ -1960,19 +1984,19 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>96800</v>
+        <v>48400</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>18121.04296999609</v>
+        <v>13590.78222749707</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>3550</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>118471.0429699961</v>
+        <v>65540.78222749707</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1421652.515639953</v>
+        <v>786489.3867299648</v>
       </c>
     </row>
     <row r="45">
@@ -1982,19 +2006,19 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>97200</v>
+        <v>48600</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>19178.90798089569</v>
+        <v>14384.18098567177</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>3575</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>119953.9079808957</v>
+        <v>66559.18098567177</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>1439446.895770748</v>
+        <v>798710.1718280613</v>
       </c>
     </row>
     <row r="46">
@@ -2004,19 +2028,19 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>97600</v>
+        <v>48800</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>20131.464652946</v>
+        <v>15098.5984897095</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3600</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>121331.464652946</v>
+        <v>67498.5984897095</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1455977.575835352</v>
+        <v>809983.1818765141</v>
       </c>
     </row>
     <row r="47">
@@ -2026,19 +2050,19 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>98000</v>
+        <v>49000</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>20893.62393558584</v>
+        <v>15670.21795168938</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>3625</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>122518.6239355858</v>
+        <v>68295.21795168938</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>1470223.48722703</v>
+        <v>819542.6154202726</v>
       </c>
     </row>
     <row r="48">
@@ -2048,19 +2072,19 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>98400</v>
+        <v>49200</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>21397.30440999877</v>
+        <v>16047.97830749908</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>3650</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>123447.3044099988</v>
+        <v>68897.97830749908</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>1481367.652919985</v>
+        <v>826775.739689989</v>
       </c>
     </row>
     <row r="49">
@@ -2070,19 +2094,19 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>98800.00000000001</v>
+        <v>49400.00000000001</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>21597.5137994925</v>
+        <v>16198.13534961938</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>3675</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>124072.5137994925</v>
+        <v>69273.13534961938</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1488870.16559391</v>
+        <v>831277.6241954325</v>
       </c>
     </row>
     <row r="50">
@@ -2092,19 +2116,19 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>99200</v>
+        <v>49600</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>21476.3679955774</v>
+        <v>16107.27599668305</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>3700</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>124376.3679955774</v>
+        <v>69407.27599668305</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>1492516.415946929</v>
+        <v>832887.3119601966</v>
       </c>
     </row>
     <row r="51">
@@ -2114,19 +2138,19 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>99600.00000000001</v>
+        <v>49800.00000000001</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>21044.68859211456</v>
+        <v>15783.51644408592</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>3725</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>124369.6885921146</v>
+        <v>69308.51644408592</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>1492436.263105375</v>
+        <v>831702.1973290311</v>
       </c>
     </row>
     <row r="52">
@@ -2136,19 +2160,19 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>20341.03622456562</v>
+        <v>15255.77716842421</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>124091.0362245656</v>
+        <v>69005.77716842422</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>1489092.434694787</v>
+        <v>828069.3260210906</v>
       </c>
     </row>
     <row r="53">
@@ -2158,19 +2182,19 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>100400</v>
+        <v>50199.99999999999</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>19428.26606327021</v>
+        <v>14571.19954745266</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>123578.2660632702</v>
+        <v>68521.19954745265</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>1482939.192759242</v>
+        <v>822254.3945694318</v>
       </c>
     </row>
     <row r="54">
@@ -2180,19 +2204,19 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>100800</v>
+        <v>50400</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>18387.913148278</v>
+        <v>13790.9348612085</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>122937.913148278</v>
+        <v>67940.9348612085</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>1475254.957779336</v>
+        <v>815291.2183345021</v>
       </c>
     </row>
     <row r="55">
@@ -2202,19 +2226,19 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>101200</v>
+        <v>50600.00000000001</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>17312.90910705292</v>
+        <v>12984.68183028969</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>122262.9091070529</v>
+        <v>67334.6818302897</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>1467154.909284635</v>
+        <v>808016.1819634764</v>
       </c>
     </row>
     <row r="56">
@@ -2224,19 +2248,19 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>101600</v>
+        <v>50800</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>16299.28084896552</v>
+        <v>12224.46063672414</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>121649.2808489655</v>
+        <v>66774.46063672414</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>1459791.370187586</v>
+        <v>801293.5276406896</v>
       </c>
     </row>
     <row r="57">
@@ -2246,19 +2270,19 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>102000</v>
+        <v>51000</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>15437.57276747116</v>
+        <v>11578.17957560337</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>121187.5727674712</v>
+        <v>66328.17957560337</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>1454250.873209654</v>
+        <v>795938.1549072404</v>
       </c>
     </row>
     <row r="58">
@@ -2268,19 +2292,19 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>102400</v>
+        <v>51200</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>14804.75867910658</v>
+        <v>11103.56900932994</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>120954.7586791066</v>
+        <v>66053.56900932993</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>1451457.104149279</v>
+        <v>792642.8281119592</v>
       </c>
     </row>
     <row r="59">
@@ -2290,19 +2314,19 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>102800</v>
+        <v>51400.00000000001</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>14457.36598170609</v>
+        <v>10843.02448627956</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>121007.3659817061</v>
+        <v>65993.02448627958</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>1452088.391780473</v>
+        <v>791916.293835355</v>
       </c>
     </row>
     <row r="60">
@@ -2312,19 +2336,19 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>103200</v>
+        <v>51600</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>14426.42623030572</v>
+        <v>10819.81967272929</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>121376.4262303057</v>
+        <v>66169.8196727293</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>1456517.114763669</v>
+        <v>794037.8360727516</v>
       </c>
     </row>
     <row r="61">
@@ -2334,19 +2358,19 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>103600</v>
+        <v>51800</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>14714.70318075174</v>
+        <v>11036.0273855638</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>122064.7031807517</v>
+        <v>66586.02738556379</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>1464776.438169021</v>
+        <v>799032.3286267655</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2451,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>214200</v>
+        <v>107100</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>15000</v>
@@ -2442,10 +2466,10 @@
         <v>3000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>240700</v>
+        <v>137100</v>
       </c>
     </row>
     <row r="3">
@@ -2455,7 +2479,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>214553.7687148713</v>
+        <v>107276.8843574357</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15024.7737195288</v>
@@ -2470,10 +2494,10 @@
         <v>3004.954743905761</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1502.47737195288</v>
+        <v>5008.257906509602</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>241097.5356193722</v>
+        <v>137326.4317964933</v>
       </c>
     </row>
     <row r="4">
@@ -2483,7 +2507,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>214908.1217075373</v>
+        <v>107454.0608537687</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>15049.58835486956</v>
@@ -2498,10 +2522,10 @@
         <v>3009.917670973912</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1504.958835486956</v>
+        <v>5016.529451623186</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>241495.7278011402</v>
+        <v>137553.2375635078</v>
       </c>
     </row>
     <row r="5">
@@ -2511,7 +2535,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>215263.0599429803</v>
+        <v>107631.5299714901</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>15074.44397359806</v>
@@ -2526,10 +2550,10 @@
         <v>3014.888794719611</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1507.444397359806</v>
+        <v>5024.814657866019</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>241894.5776296702</v>
+        <v>137780.4179186862</v>
       </c>
     </row>
     <row r="6">
@@ -2539,7 +2563,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>215618.5843877762</v>
+        <v>107809.2921938881</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>15099.3406434017</v>
@@ -2554,10 +2578,10 @@
         <v>3019.868128680339</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1509.934064340169</v>
+        <v>5033.113547800565</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>242294.0861911192</v>
+        <v>138007.9734806915</v>
       </c>
     </row>
     <row r="7">
@@ -2567,7 +2591,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>215974.6960100975</v>
+        <v>107987.3480050488</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>15124.27843207966</v>
@@ -2582,10 +2606,10 @@
         <v>3024.855686415932</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1512.427843207966</v>
+        <v>5041.426144026553</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>242694.2545734383</v>
+        <v>138235.9048692081</v>
       </c>
     </row>
     <row r="8">
@@ -2595,7 +2619,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>216331.3957797157</v>
+        <v>108165.6978898579</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>15149.25740754312</v>
@@ -2610,10 +2634,10 @@
         <v>3029.851481508624</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1514.925740754312</v>
+        <v>5049.752469181039</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>243095.0838663753</v>
+        <v>138464.2127049441</v>
       </c>
     </row>
     <row r="9">
@@ -2623,7 +2647,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>216688.6846680038</v>
+        <v>108344.3423340019</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>15174.27763781539</v>
@@ -2638,10 +2662,10 @@
         <v>3034.855527563078</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1517.427763781539</v>
+        <v>5058.092545938464</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>243496.5751614777</v>
+        <v>138692.8976096327</v>
       </c>
     </row>
     <row r="10">
@@ -2651,7 +2675,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>217046.5636479392</v>
+        <v>108523.2818239696</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>15199.33919103215</v>
@@ -2666,10 +2690,10 @@
         <v>3039.86783820643</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1519.933919103215</v>
+        <v>5066.446397010717</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>243898.729552096</v>
+        <v>138921.9602060339</v>
       </c>
     </row>
     <row r="11">
@@ -2679,7 +2703,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>217405.0336941061</v>
+        <v>108702.5168470531</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>15224.4421354416</v>
@@ -2694,10 +2718,10 @@
         <v>3044.888427088321</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1522.44421354416</v>
+        <v>5074.814045147201</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>244301.5481333863</v>
+        <v>139151.4011179363</v>
       </c>
     </row>
     <row r="12">
@@ -2707,7 +2731,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>217764.0957826987</v>
+        <v>108882.0478913493</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>15249.58653940467</v>
@@ -2722,10 +2746,10 @@
         <v>3049.917307880933</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1524.958653940467</v>
+        <v>5083.195513134889</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>244705.0320023136</v>
+        <v>139381.2209701586</v>
       </c>
     </row>
     <row r="13">
@@ -2735,7 +2759,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>218123.7508915229</v>
+        <v>109061.8754457615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>15274.77247139516</v>
@@ -2750,10 +2774,10 @@
         <v>3054.954494279032</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1527.477247139516</v>
+        <v>5091.590823798387</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>245109.1822576543</v>
+        <v>139611.4203885517</v>
       </c>
     </row>
     <row r="14">
@@ -2763,7 +2787,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>218484</v>
+        <v>109242</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>15300</v>
@@ -2778,10 +2802,10 @@
         <v>3060</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1530</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>245514</v>
+        <v>139842</v>
       </c>
     </row>
     <row r="15">
@@ -2791,7 +2815,7 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>218844.8440891688</v>
+        <v>109422.4220445844</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>15325.26919391938</v>
@@ -2806,10 +2830,10 @@
         <v>3065.053838783876</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1532.526919391938</v>
+        <v>5108.423064639794</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>245919.4863317597</v>
+        <v>140072.9604324231</v>
       </c>
     </row>
     <row r="16">
@@ -2819,7 +2843,7 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>219206.2841416881</v>
+        <v>109603.142070844</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>15350.58012196695</v>
@@ -2834,10 +2858,10 @@
         <v>3070.11602439339</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1535.058012196695</v>
+        <v>5116.86004065565</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>246325.642357163</v>
+        <v>140304.3023147779</v>
       </c>
     </row>
     <row r="17">
@@ -2847,7 +2871,7 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>219568.3211418399</v>
+        <v>109784.16057092</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>15375.93285307002</v>
@@ -2862,10 +2886,10 @@
         <v>3075.186570614004</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1537.593285307002</v>
+        <v>5125.31095102334</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>246732.4691822636</v>
+        <v>140536.02627706</v>
       </c>
     </row>
     <row r="18">
@@ -2875,7 +2899,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>219930.9560755318</v>
+        <v>109965.4780377659</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>15401.32745626973</v>
@@ -2890,10 +2914,10 @@
         <v>3080.265491253946</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1540.132745626973</v>
+        <v>5133.775818756576</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>247139.9679149416</v>
+        <v>140768.1329503053</v>
       </c>
     </row>
     <row r="19">
@@ -2903,7 +2927,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>220294.1899302995</v>
+        <v>110147.0949651498</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>15426.76400072125</v>
@@ -2918,10 +2942,10 @@
         <v>3085.352800144251</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1542.676400072125</v>
+        <v>5142.254666907084</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>247548.1396649071</v>
+        <v>141000.6229665923</v>
       </c>
     </row>
     <row r="20">
@@ -2931,7 +2955,7 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>220658.0236953101</v>
+        <v>110329.011847655</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>15452.24255569398</v>
@@ -2946,10 +2970,10 @@
         <v>3090.448511138796</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1545.224255569398</v>
+        <v>5150.74751856466</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>247956.9855437028</v>
+        <v>141233.496959043</v>
       </c>
     </row>
     <row r="21">
@@ -2959,7 +2983,7 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>221022.4583613639</v>
+        <v>110511.229180682</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>15477.7631905717</v>
@@ -2974,10 +2998,10 @@
         <v>3095.55263811434</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1547.77631905717</v>
+        <v>5159.254396857234</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>248366.5066647072</v>
+        <v>141466.7555618254</v>
       </c>
     </row>
     <row r="22">
@@ -2987,7 +3011,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>221387.4949208979</v>
+        <v>110693.747460449</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>15503.32597485279</v>
@@ -3002,10 +3026,10 @@
         <v>3100.665194970559</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1550.33259748528</v>
+        <v>5167.775324950931</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>248776.7041431379</v>
+        <v>141700.3994101546</v>
       </c>
     </row>
     <row r="23">
@@ -3015,7 +3039,7 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>221753.1343679882</v>
+        <v>110876.5671839941</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>15528.93097815044</v>
@@ -3030,10 +3054,10 @@
         <v>3105.786195630087</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1552.893097815044</v>
+        <v>5176.310326050146</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>249187.579096054</v>
+        <v>141934.429140295</v>
       </c>
     </row>
     <row r="24">
@@ -3043,7 +3067,7 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>222119.3776983526</v>
+        <v>111059.6888491763</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>15554.57827019276</v>
@@ -3058,10 +3082,10 @@
         <v>3110.915654038552</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1555.457827019276</v>
+        <v>5184.859423397586</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>249599.1326423599</v>
+        <v>142168.8453895618</v>
       </c>
     </row>
     <row r="25">
@@ -3071,7 +3095,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>222486.2259093534</v>
+        <v>111243.1129546767</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>15580.26792082306</v>
@@ -3086,10 +3110,10 @@
         <v>3116.053584164613</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1558.026792082306</v>
+        <v>5193.422640274354</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>250011.3659028074</v>
+        <v>142403.6487963228</v>
       </c>
     </row>
     <row r="26">
@@ -3099,7 +3123,7 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>222853.68</v>
+        <v>111426.84</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>15606</v>
@@ -3114,10 +3138,10 @@
         <v>3121.2</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1560.6</v>
+        <v>5202</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>250424.28</v>
+        <v>142638.84</v>
       </c>
     </row>
     <row r="27">
@@ -3127,7 +3151,7 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>223221.7409709521</v>
+        <v>111610.8704854761</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>15631.77457779777</v>
@@ -3142,10 +3166,10 @@
         <v>3126.354915559553</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1563.177457779777</v>
+        <v>5210.591525932588</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>250837.8760583948</v>
+        <v>142874.4196410716</v>
       </c>
     </row>
     <row r="28">
@@ -3155,7 +3179,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>223590.4098245218</v>
+        <v>111795.2049122609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>15657.59172440629</v>
@@ -3170,10 +3194,10 @@
         <v>3131.518344881258</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1565.759172440629</v>
+        <v>5219.197241468763</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>251252.1552043063</v>
+        <v>143110.3883610735</v>
       </c>
     </row>
     <row r="29">
@@ -3183,7 +3207,7 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>223959.6875646767</v>
+        <v>111979.8437823383</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>15683.45151013142</v>
@@ -3198,10 +3222,10 @@
         <v>3136.690302026283</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1568.345151013142</v>
+        <v>5227.817170043806</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>251667.1185659088</v>
+        <v>143346.7468026011</v>
       </c>
     </row>
     <row r="30">
@@ -3211,7 +3235,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>224329.5751970424</v>
+        <v>112164.7875985212</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>15709.35400539512</v>
@@ -3226,10 +3250,10 @@
         <v>3141.870801079025</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1570.935400539512</v>
+        <v>5236.451335131707</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>252082.7672732404</v>
+        <v>143583.4956093114</v>
       </c>
     </row>
     <row r="31">
@@ -3239,7 +3263,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>224700.0737289055</v>
+        <v>112350.0368644528</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>15735.29928073568</v>
@@ -3254,10 +3278,10 @@
         <v>3147.059856147136</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1573.529928073568</v>
+        <v>5245.099760245226</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>252499.1024582052</v>
+        <v>143820.6354259241</v>
       </c>
     </row>
     <row r="32">
@@ -3267,7 +3291,7 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>225071.1841692163</v>
+        <v>112535.5920846081</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>15761.28740680786</v>
@@ -3282,10 +3306,10 @@
         <v>3152.257481361572</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1576.128740680786</v>
+        <v>5253.762468935953</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>252916.1252545768</v>
+        <v>144058.1668982238</v>
       </c>
     </row>
     <row r="33">
@@ -3295,7 +3319,7 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>225442.9075285912</v>
+        <v>112721.4537642956</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>15787.31845438313</v>
@@ -3310,10 +3334,10 @@
         <v>3157.463690876627</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1578.731845438313</v>
+        <v>5262.439484794378</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>253333.8367980014</v>
+        <v>144296.0906730618</v>
       </c>
     </row>
     <row r="34">
@@ -3323,7 +3347,7 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>225815.2448193159</v>
+        <v>112907.622409658</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>15813.39249434985</v>
@@ -3338,10 +3362,10 @@
         <v>3162.67849886997</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1581.339249434985</v>
+        <v>5271.13083144995</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>253752.2382260007</v>
+        <v>144534.4073983576</v>
       </c>
     </row>
     <row r="35">
@@ -3351,7 +3375,7 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>226188.197055348</v>
+        <v>113094.098527674</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>15839.50959771344</v>
@@ -3366,10 +3390,10 @@
         <v>3167.901919542689</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1583.950959771345</v>
+        <v>5279.836532571148</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>254171.3306779751</v>
+        <v>144773.1177231009</v>
       </c>
     </row>
     <row r="36">
@@ -3379,7 +3403,7 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>226561.7652523197</v>
+        <v>113280.8826261598</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>15865.66983559661</v>
@@ -3394,10 +3418,10 @@
         <v>3173.133967119323</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1586.566983559661</v>
+        <v>5288.556611865538</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>254591.115295207</v>
+        <v>145012.2222973531</v>
       </c>
     </row>
     <row r="37">
@@ -3407,7 +3431,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>226935.9504275404</v>
+        <v>113467.9752137702</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>15891.87327923952</v>
@@ -3422,10 +3446,10 @@
         <v>3178.374655847905</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1589.187327923952</v>
+        <v>5297.291093079841</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>255011.5932208636</v>
+        <v>145251.7217722492</v>
       </c>
     </row>
     <row r="38">
@@ -3435,7 +3459,7 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>227310.7536000001</v>
+        <v>113655.3768</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>15918.12</v>
@@ -3450,10 +3474,10 @@
         <v>3183.624</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1591.812</v>
+        <v>5306.040000000001</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>255432.7656000001</v>
+        <v>145491.6168</v>
       </c>
     </row>
     <row r="39">
@@ -3463,7 +3487,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>227686.1757903712</v>
+        <v>113843.0878951856</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>15944.41006935372</v>
@@ -3478,10 +3502,10 @@
         <v>3188.882013870745</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1594.441006935372</v>
+        <v>5314.803356451241</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>255854.6335795628</v>
+        <v>145731.908033893</v>
       </c>
     </row>
     <row r="40">
@@ -3491,7 +3515,7 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>228062.2180210123</v>
+        <v>114031.1090105061</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>15970.74355889442</v>
@@ -3506,10 +3530,10 @@
         <v>3194.148711778883</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1597.074355889442</v>
+        <v>5323.581186298138</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>256277.1983083924</v>
+        <v>145972.596128295</v>
       </c>
     </row>
     <row r="41">
@@ -3519,7 +3543,7 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>228438.8813159702</v>
+        <v>114219.4406579851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>15997.12054033405</v>
@@ -3534,10 +3558,10 @@
         <v>3199.424108066809</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1599.712054033405</v>
+        <v>5332.373513444682</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>256700.4609372271</v>
+        <v>146213.6817386532</v>
       </c>
     </row>
     <row r="42">
@@ -3547,7 +3571,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>228816.1667009832</v>
+        <v>114408.0833504916</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>16023.54108550303</v>
@@ -3562,10 +3586,10 @@
         <v>3204.708217100605</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1602.354108550303</v>
+        <v>5341.180361834342</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>257124.4226187053</v>
+        <v>146455.1655214977</v>
       </c>
     </row>
     <row r="43">
@@ -3575,7 +3599,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>229194.0752034837</v>
+        <v>114597.0376017418</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>16050.00526635039</v>
@@ -3590,10 +3614,10 @@
         <v>3210.001053270079</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1605.000526635039</v>
+        <v>5350.001755450131</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>257549.0845073693</v>
+        <v>146697.0481344426</v>
       </c>
     </row>
     <row r="44">
@@ -3603,7 +3627,7 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>229572.6078526006</v>
+        <v>114786.3039263003</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>16076.51315494402</v>
@@ -3618,10 +3642,10 @@
         <v>3215.302630988803</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1607.651315494402</v>
+        <v>5358.837718314672</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>257974.4477596683</v>
+        <v>146939.3302361883</v>
       </c>
     </row>
     <row r="45">
@@ -3631,7 +3655,7 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>229951.765679163</v>
+        <v>114975.8828395815</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>16103.0648234708</v>
@@ -3646,10 +3670,10 @@
         <v>3220.612964694159</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1610.30648234708</v>
+        <v>5367.688274490265</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>258400.5135339614</v>
+        <v>147182.0124865231</v>
       </c>
     </row>
     <row r="46">
@@ -3659,7 +3683,7 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>230331.5497157022</v>
+        <v>115165.7748578511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>16129.66034423685</v>
@@ -3674,10 +3698,10 @@
         <v>3225.93206884737</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1612.966034423685</v>
+        <v>5376.55344807895</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>258827.2829905207</v>
+        <v>147425.0955463248</v>
       </c>
     </row>
     <row r="47">
@@ -3687,7 +3711,7 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>230711.960996455</v>
+        <v>115355.9804982275</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>16156.29978966771</v>
@@ -3702,10 +3726,10 @@
         <v>3231.259957933542</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1615.629978966771</v>
+        <v>5385.433263222571</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>259254.7572915346</v>
+        <v>147668.5800775629</v>
       </c>
     </row>
     <row r="48">
@@ -3715,7 +3739,7 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>231093.0005573661</v>
+        <v>115546.500278683</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>16182.98323230855</v>
@@ -3730,10 +3754,10 @@
         <v>3236.596646461709</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1618.298323230855</v>
+        <v>5394.327744102849</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>259682.9376011112</v>
+        <v>147912.4667433001</v>
       </c>
     </row>
     <row r="49">
@@ -3743,7 +3767,7 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>231474.6694360912</v>
+        <v>115737.3347180456</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>16209.71074482432</v>
@@ -3758,10 +3782,10 @@
         <v>3241.942148964863</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1620.971074482432</v>
+        <v>5403.236914941438</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>260111.8250852809</v>
+        <v>148156.7562076942</v>
       </c>
     </row>
     <row r="50">
@@ -3771,7 +3795,7 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>231856.968672</v>
+        <v>115928.484336</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>16236.4824</v>
@@ -3786,10 +3810,10 @@
         <v>3247.29648</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1623.64824</v>
+        <v>5412.1608</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>260541.420912</v>
+        <v>148401.449136</v>
       </c>
     </row>
     <row r="51">
@@ -3799,7 +3823,7 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>232239.8993061786</v>
+        <v>116119.9496530893</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>16263.2982707408</v>
@@ -3814,10 +3838,10 @@
         <v>3252.659654148159</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1626.32982707408</v>
+        <v>5421.099423580265</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>260971.726251154</v>
+        <v>148646.5461945709</v>
       </c>
     </row>
     <row r="52">
@@ -3827,7 +3851,7 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>232623.4623814325</v>
+        <v>116311.7311907163</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>16290.1584300723</v>
@@ -3842,10 +3866,10 @@
         <v>3258.03168601446</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1629.01584300723</v>
+        <v>5430.052810024101</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>261402.7422745602</v>
+        <v>148892.0480508608</v>
       </c>
     </row>
     <row r="53">
@@ -3855,7 +3879,7 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>233007.6589422896</v>
+        <v>116503.8294711448</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>16317.06295114073</v>
@@ -3870,10 +3894,10 @@
         <v>3263.412590228146</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1631.706295114073</v>
+        <v>5439.020983713576</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>261834.4701559716</v>
+        <v>149137.9553734263</v>
       </c>
     </row>
     <row r="54">
@@ -3883,7 +3907,7 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>233392.4900350029</v>
+        <v>116696.2450175015</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>16344.01190721309</v>
@@ -3898,10 +3922,10 @@
         <v>3268.802381442617</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1634.401190721309</v>
+        <v>5448.003969071029</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>262266.9110710794</v>
+        <v>149384.2688319276</v>
       </c>
     </row>
     <row r="55">
@@ -3911,7 +3935,7 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>233777.9567075533</v>
+        <v>116888.9783537767</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>16371.0053716774</v>
@@ -3926,10 +3950,10 @@
         <v>3274.20107433548</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1637.10053716774</v>
+        <v>5457.001790559134</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>262700.0661975167</v>
+        <v>149630.9890971314</v>
       </c>
     </row>
     <row r="56">
@@ -3939,7 +3963,7 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>234164.0600096526</v>
+        <v>117082.0300048263</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>16398.0434180429</v>
@@ -3954,10 +3978,10 @@
         <v>3279.608683608579</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1639.80434180429</v>
+        <v>5466.014472680966</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>263133.9367148617</v>
+        <v>149878.1168409121</v>
       </c>
     </row>
     <row r="57">
@@ -3967,7 +3991,7 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>234550.8009927463</v>
+        <v>117275.4004963731</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>16425.12611994021</v>
@@ -3982,10 +4006,10 @@
         <v>3285.025223988042</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1642.512611994021</v>
+        <v>5475.042039980071</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>263568.5238046406</v>
+        <v>150125.6527362535</v>
       </c>
     </row>
     <row r="58">
@@ -3995,7 +4019,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>234938.1807100163</v>
+        <v>117469.0903550081</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>16452.25355112159</v>
@@ -4010,10 +4034,10 @@
         <v>3290.450710224317</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1645.225355112158</v>
+        <v>5484.084517040528</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>264003.8286503311</v>
+        <v>150373.5974572513</v>
       </c>
     </row>
     <row r="59">
@@ -4023,7 +4047,7 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>235326.2002163841</v>
+        <v>117663.1001081921</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>16479.42578546107</v>
@@ -4038,10 +4062,10 @@
         <v>3295.885157092214</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1647.942578546107</v>
+        <v>5493.141928487024</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>264439.8524373653</v>
+        <v>150621.9516791142</v>
       </c>
     </row>
     <row r="60">
@@ -4051,7 +4075,7 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>235714.8605685134</v>
+        <v>117857.4302842567</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>16506.64289695472</v>
@@ -4066,10 +4090,10 @@
         <v>3301.328579390943</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1650.664289695472</v>
+        <v>5502.214298984905</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>264876.5963531334</v>
+        <v>150870.7160781661</v>
       </c>
     </row>
     <row r="61">
@@ -4079,7 +4103,7 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>236104.1628248131</v>
+        <v>118052.0814124065</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>16533.9049597208</v>
@@ -4094,10 +4118,10 @@
         <v>3306.78099194416</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1653.39049597208</v>
+        <v>5511.301653240267</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>265314.0615869865</v>
+        <v>151119.8913318481</v>
       </c>
     </row>
   </sheetData>
@@ -4178,22 +4202,22 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>100500</v>
+        <v>56000</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>240700</v>
+        <v>137100</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-140200</v>
+        <v>-81100</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-140200</v>
+        <v>-81100</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-32140200</v>
+        <v>-3281100</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.004381250000000001</v>
+        <v>-0.02534375</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -4208,22 +4232,22 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>101988.8727439808</v>
+        <v>57022.90455798561</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>241097.5356193722</v>
+        <v>137326.4317964933</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-139108.6628753914</v>
+        <v>-80303.52723850767</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-279308.6628753914</v>
+        <v>-161403.5272385077</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-32279308.66287539</v>
+        <v>-3361403.527238508</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-0.008728395714855982</v>
+        <v>-0.05043860226203364</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4238,22 +4262,22 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>103382.7129042221</v>
+        <v>57974.53467816659</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>241495.7278011402</v>
+        <v>137553.2375635078</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-138113.0148969181</v>
+        <v>-79578.70288534119</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-417421.6777723095</v>
+        <v>-240982.2301238489</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-32417421.67777231</v>
+        <v>-3440982.230123849</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>-0.01304442743038467</v>
+        <v>-0.07530694691370277</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -4268,22 +4292,22 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>104594.9768746589</v>
+        <v>58789.9826559942</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>241894.5776296702</v>
+        <v>137780.4179186862</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-137299.6007550113</v>
+        <v>-78990.43526269203</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-554721.2785273208</v>
+        <v>-319972.6653865409</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-32554721.27852732</v>
+        <v>-3519972.665386541</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>-0.01733503995397877</v>
+        <v>-0.09999145793329402</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4298,22 +4322,22 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>105555.340709482</v>
+        <v>59416.50553211151</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>242294.0861911192</v>
+        <v>138007.9734806915</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-136738.7454816372</v>
+        <v>-78591.46794857999</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-691460.024008958</v>
+        <v>-398564.1333351209</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-32691460.02400896</v>
+        <v>-3598564.133335121</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>-0.02160812575027994</v>
+        <v>-0.1245512916672253</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4328,22 +4352,22 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>106215.9819517746</v>
+        <v>59818.23646383095</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>242694.2545734383</v>
+        <v>138235.9048692081</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-136478.2726216637</v>
+        <v>-78417.66840537713</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-827938.2966306217</v>
+        <v>-476981.801740498</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-32827938.29663062</v>
+        <v>-3676981.801740498</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>-0.02587307176970693</v>
+        <v>-0.1490568130439056</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4358,22 +4382,22 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>106555.8514711615</v>
+        <v>59979.38860337112</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>243095.0838663753</v>
+        <v>138464.2127049441</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-136539.2323952138</v>
+        <v>-78484.82410157297</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-964477.5290258355</v>
+        <v>-555466.6258420709</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-32964477.52902583</v>
+        <v>-3755466.625842071</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-0.03013992278205736</v>
+        <v>-0.1735833205756472</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -4388,22 +4412,22 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>106582.5537199359</v>
+        <v>59905.66528995196</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>243496.5751614777</v>
+        <v>138692.8976096327</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-136914.0214415418</v>
+        <v>-78787.23231968074</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1101391.550467377</v>
+        <v>-634253.8581617516</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-33101391.55046738</v>
+        <v>-3834253.858161752</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-0.03441848595210554</v>
+        <v>-0.1982043306755474</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4418,22 +4442,22 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>106331.6674499841</v>
+        <v>59623.75058748811</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>243898.729552096</v>
+        <v>138921.9602060339</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-137567.0621021118</v>
+        <v>-79298.20961854575</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1238958.612569489</v>
+        <v>-713552.0677802974</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-33238958.61256949</v>
+        <v>-3913552.067780297</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>-0.03871745664279654</v>
+        <v>-0.2229850211813429</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4448,22 +4472,22 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>105863.5675688418</v>
+        <v>59178.92567663134</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>244301.5481333863</v>
+        <v>139151.4011179363</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-138437.9805645445</v>
+        <v>-79972.47544130494</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1377396.593134033</v>
+        <v>-793524.5432216023</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-33377396.59313403</v>
+        <v>-3993524.543221602</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>-0.04304364353543855</v>
+        <v>-0.2479764197567507</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4478,22 +4502,22 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>105258.0320290155</v>
+        <v>58631.02402176164</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>244705.0320023136</v>
+        <v>139381.2209701586</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-139446.9999732981</v>
+        <v>-80750.196948397</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1516843.593107332</v>
+        <v>-874274.7401699993</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-33516843.59310733</v>
+        <v>-4074274.740169999</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>-0.04740136228460411</v>
+        <v>-0.2732108563031248</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4508,22 +4532,22 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>104607.1155010843</v>
+        <v>58049.08662581323</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>245109.1822576543</v>
+        <v>139611.4203885517</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-140502.06675657</v>
+        <v>-81562.33376273852</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1657345.659863902</v>
+        <v>-955837.0739327378</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-33657345.6598639</v>
+        <v>-4155837.073932738</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>-0.05179205187074692</v>
+        <v>-0.2986990856039806</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -4538,22 +4562,22 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>104006.9264041385</v>
+        <v>57505.1948031039</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>245514</v>
+        <v>139842</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-141507.0735958615</v>
+        <v>-82336.80519689611</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1798852.733459763</v>
+        <v>-1038173.879129634</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-33798852.73345976</v>
+        <v>-4238173.879129634</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>-0.0562141479206176</v>
+        <v>-0.3244293372280106</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4568,22 +4592,22 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>103549.0418269377</v>
+        <v>57068.03137020327</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>245919.4863317597</v>
+        <v>140072.9604324231</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-142370.444504822</v>
+        <v>-83004.92906221986</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1941223.177964585</v>
+        <v>-1121178.808191854</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-33941223.17796458</v>
+        <v>-4321178.808191854</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>-0.06066322431139328</v>
+        <v>-0.3503683775599543</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4598,22 +4622,22 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>103312.3272193111</v>
+        <v>56796.74541448331</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>246325.642357163</v>
+        <v>140304.3023147779</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-143013.3151378519</v>
+        <v>-83507.55690029461</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-2084236.493102437</v>
+        <v>-1204686.365092149</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-34084236.49310244</v>
+        <v>-4404686.365092149</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>-0.06513239040945115</v>
+        <v>-0.3764644890912964</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4628,22 +4652,22 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>103355.8915764056</v>
+        <v>56735.66868230424</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>246732.4691822636</v>
+        <v>140536.02627706</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-143376.577605858</v>
+        <v>-83800.35759475574</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-2227613.070708295</v>
+        <v>-1288486.722686904</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-34227613.0707083</v>
+        <v>-4488486.722686904</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-0.06961290845963422</v>
+        <v>-0.4026521008396576</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4658,22 +4682,22 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>103713.807408191</v>
+        <v>56910.35555614323</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>247139.9679149416</v>
+        <v>140768.1329503053</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-143426.1605067506</v>
+        <v>-83857.7773941621</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-2371039.231215045</v>
+        <v>-1372344.500081066</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-34371039.23121504</v>
+        <v>-4572344.500081066</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>-0.07409497597547017</v>
+        <v>-0.4288576562753332</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4688,22 +4712,22 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>104392.0671436202</v>
+        <v>57325.30035771512</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>247548.1396649071</v>
+        <v>141000.6229665923</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-143156.0725212869</v>
+        <v>-83675.32260887713</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-2514195.303736332</v>
+        <v>-1456019.822689943</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-34514195.30373633</v>
+        <v>-4656019.822689943</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>-0.07856860324176039</v>
+        <v>-0.4550061945906073</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4718,22 +4742,22 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>105368.0478447984</v>
+        <v>57963.53588359883</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>247956.9855437028</v>
+        <v>141233.496959043</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-142588.9376989043</v>
+        <v>-83269.96107544414</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-2656784.241435237</v>
+        <v>-1539289.783765388</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-34656784.24143524</v>
+        <v>-4739289.783765388</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>-0.08302450754485115</v>
+        <v>-0.4810280574266836</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -4748,22 +4772,22 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>106592.5320466485</v>
+        <v>58788.14903498637</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>248366.5066647072</v>
+        <v>141466.7555618254</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-141773.9746180587</v>
+        <v>-82678.60652683898</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-2798558.216053295</v>
+        <v>-1621968.390292227</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-34798558.21605329</v>
+        <v>-4821968.390292227</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>-0.08745494425166549</v>
+        <v>-0.5068651219663208</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4778,22 +4802,22 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>107994.1042064839</v>
+        <v>59745.5781548629</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>248776.7041431379</v>
+        <v>141700.3994101546</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-140782.599936654</v>
+        <v>-81954.82125529165</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-2939340.815989949</v>
+        <v>-1703923.211547518</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-34939340.81598995</v>
+        <v>-4903923.211547518</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>-0.09185440049968592</v>
+        <v>-0.5324760036085995</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4808,22 +4832,22 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>109485.5300417437</v>
+        <v>60770.39753130774</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>249187.579096054</v>
+        <v>141934.429140295</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-139702.0490543104</v>
+        <v>-81164.03160898725</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-3079042.865044259</v>
+        <v>-1785087.243156506</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-35079042.86504426</v>
+        <v>-4985087.243156506</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>-0.09622008953263311</v>
+        <v>-0.5578397634864081</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4838,22 +4862,22 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>110971.5489086482</v>
+        <v>61791.16168148613</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>249599.1326423599</v>
+        <v>142168.8453895618</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-138627.5837337117</v>
+        <v>-80377.6837080757</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-3217670.448777971</v>
+        <v>-1865464.926864581</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-35217670.44877797</v>
+        <v>-5065464.926864581</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>-0.1005522015243116</v>
+        <v>-0.5829577896451817</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4868,22 +4892,22 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>112357.3831517975</v>
+        <v>62736.78736384814</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>250011.3659028074</v>
+        <v>142403.6487963228</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-137653.9827510099</v>
+        <v>-79666.86143247464</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-3355324.431528981</v>
+        <v>-1945131.788297056</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-35355324.43152898</v>
+        <v>-5145131.788297056</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>-0.1048538884852807</v>
+        <v>-0.60785368384283</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4898,22 +4922,22 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>113557.204309857</v>
+        <v>63542.90323239272</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>250424.28</v>
+        <v>142638.84</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-136867.0756901431</v>
+        <v>-79095.93676760729</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-3492191.507219125</v>
+        <v>-2024227.725064663</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-35492191.50721912</v>
+        <v>-5224227.725064663</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>-0.1091309846005976</v>
+        <v>-0.6325711640827073</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4928,22 +4952,22 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>114501.7999163891</v>
+        <v>64157.59993729179</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>250837.8760583948</v>
+        <v>142874.4196410716</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-136336.0761420058</v>
+        <v>-78716.81970377979</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-3628527.58336113</v>
+        <v>-2102944.544768443</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-35628527.58336113</v>
+        <v>-5302944.544768443</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-0.1133914869800353</v>
+        <v>-0.6571701702401384</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -4958,22 +4982,22 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>115144.7560433486</v>
+        <v>64546.06703251143</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>251252.1552043063</v>
+        <v>143110.3883610735</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-136107.3991609577</v>
+        <v>-78564.32132856204</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-3764634.982522088</v>
+        <v>-2181508.866097005</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-35764634.98252209</v>
+        <v>-5381508.866097005</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>-0.1176448432038153</v>
+        <v>-0.6817215206553141</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4988,22 +5012,22 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>115466.6033190423</v>
+        <v>64693.70248928173</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>251667.1185659088</v>
+        <v>143346.7468026011</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-136200.5152468665</v>
+        <v>-78653.04431331942</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-3900835.497768955</v>
+        <v>-2260161.910410325</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-35900835.49776895</v>
+        <v>-5460161.910410324</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>-0.1219011093052798</v>
+        <v>-0.7063005970032264</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5018,22 +5042,22 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>115476.5560691178</v>
+        <v>64607.41705183836</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>252082.7672732404</v>
+        <v>143583.4956093114</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-136606.2112041226</v>
+        <v>-78976.07855747305</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-4037441.708973078</v>
+        <v>-2339137.988967798</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-36037441.70897308</v>
+        <v>-5539137.988967798</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>-0.1261700534054087</v>
+        <v>-0.7309806215524368</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5048,22 +5072,22 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>115211.6892282959</v>
+        <v>64315.0169212219</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>252499.1024582052</v>
+        <v>143820.6354259241</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-137287.4132299094</v>
+        <v>-79505.61850470223</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-4174729.122202987</v>
+        <v>-2418643.6074725</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-36174729.12220298</v>
+        <v>-5618643.6074725</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>-0.1304602850688433</v>
+        <v>-0.7558261273351562</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5078,22 +5102,22 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>114733.6265468703</v>
+        <v>63862.71991015274</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>252916.1252545768</v>
+        <v>144058.1668982238</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-138182.4987077065</v>
+        <v>-80195.44698807108</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-4312911.620910693</v>
+        <v>-2498839.054460571</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-36312911.62091069</v>
+        <v>-5698839.054460571</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>-0.1347784881534592</v>
+        <v>-0.7808872045189285</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -5108,22 +5132,22 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>114123.0359246254</v>
+        <v>63311.02694346907</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>253333.8367980014</v>
+        <v>144296.0906730618</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-139210.800873376</v>
+        <v>-80985.06372959277</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-4452122.421784069</v>
+        <v>-2579824.118190164</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-36452122.42178407</v>
+        <v>-5779824.118190164</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>-0.1391288256807522</v>
+        <v>-0.8061950369344262</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -5138,22 +5162,22 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>113472.4235875973</v>
+        <v>62729.31769069796</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>253752.2382260007</v>
+        <v>144534.4073983576</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-140279.8146384034</v>
+        <v>-81805.08970765967</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-4592402.236422473</v>
+        <v>-2661629.207897823</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-36592402.23642247</v>
+        <v>-5861629.207897823</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>-0.1435125698882023</v>
+        <v>-0.8317591274680698</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -5168,22 +5192,22 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>112877.8707824088</v>
+        <v>62189.65308680663</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>254171.3306779751</v>
+        <v>144773.1177231009</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-141293.4598955663</v>
+        <v>-82583.46463629424</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-4733695.696318039</v>
+        <v>-2744212.672534117</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-36733695.69631804</v>
+        <v>-5944212.672534117</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>-0.1479279905099387</v>
+        <v>-0.8575664601669117</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -5198,22 +5222,22 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>112430.4511246632</v>
+        <v>61760.33834349744</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>254591.115295207</v>
+        <v>145012.2222973531</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-142160.6641705438</v>
+        <v>-83251.88395385562</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-4875856.360488582</v>
+        <v>-2827464.556487973</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-36875856.36048858</v>
+        <v>-6027464.556487974</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>-0.1523705112652682</v>
+        <v>-0.8835826739024917</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -5228,22 +5252,22 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>112208.095264102</v>
+        <v>61499.82144807649</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>255011.5932208636</v>
+        <v>145251.7217722492</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-142803.4979567616</v>
+        <v>-83751.90032417275</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-5018659.858445344</v>
+        <v>-2911216.456812146</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-37018659.85844535</v>
+        <v>-6111216.456812146</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>-0.156833120576417</v>
+        <v>-0.9097551427537957</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -5258,22 +5282,22 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>112268.6295717606</v>
+        <v>61451.47217882048</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>255432.7656000001</v>
+        <v>145491.6168</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-143164.1360282394</v>
+        <v>-84040.14462117954</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-5161823.994473583</v>
+        <v>-2995256.601433326</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-37161823.99447358</v>
+        <v>-6195256.601433326</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>-0.1613069998272995</v>
+        <v>-0.9360176879479143</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -5288,22 +5312,22 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>112644.6106824656</v>
+        <v>61639.70801184923</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>255854.6335795628</v>
+        <v>145731.908033893</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-143210.0228970971</v>
+        <v>-84092.20002204381</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-5305034.01737068</v>
+        <v>-3079348.801455369</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-37305034.01737068</v>
+        <v>-6279348.801455369</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>-0.1657823130428338</v>
+        <v>-0.9622965004548029</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -5318,22 +5342,22 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>113340.4173076072</v>
+        <v>62067.81298070538</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>256277.1983083924</v>
+        <v>145972.596128295</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-142936.7810007853</v>
+        <v>-83904.78314758959</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-5447970.798371466</v>
+        <v>-3163253.584602959</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-37447970.79837146</v>
+        <v>-6363253.584602959</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>-0.1702490874491083</v>
+        <v>-0.9885167451884247</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -5348,22 +5372,22 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>114331.8590978915</v>
+        <v>62717.64432341861</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>256700.4609372271</v>
+        <v>146213.6817386532</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-142368.6018393356</v>
+        <v>-83496.03741523458</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-5590339.400210802</v>
+        <v>-3246749.622018193</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-37590339.4002108</v>
+        <v>-6446749.622018194</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>-0.1746981062565875</v>
+        <v>-1.014609256880685</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -5378,22 +5402,22 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>115568.3374951984</v>
+        <v>63551.25312139883</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>257124.4226187053</v>
+        <v>146455.1655214977</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-141556.0851235068</v>
+        <v>-82903.91240009884</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-5731895.485334309</v>
+        <v>-3329653.534418292</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-37731895.48533431</v>
+        <v>-6529653.534418292</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>-0.1791217339166971</v>
+        <v>-1.040516729505716</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -5408,22 +5432,22 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>116977.3655510831</v>
+        <v>64514.27416331234</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>257549.0845073693</v>
+        <v>146697.0481344426</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-140571.7189562862</v>
+        <v>-82182.77397113026</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-5872467.204290595</v>
+        <v>-3411836.308389422</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-37872467.2042906</v>
+        <v>-6611836.308389422</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>-0.1835146001340811</v>
+        <v>-1.066198846371694</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -5438,22 +5462,22 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>118471.0429699961</v>
+        <v>65540.78222749707</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>257974.4477596683</v>
+        <v>146939.3302361883</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-139503.4047896722</v>
+        <v>-81398.54800869124</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>-6011970.609080267</v>
+        <v>-3493234.856398114</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-38011970.60908027</v>
+        <v>-6693234.856398113</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>-0.1878740815337583</v>
+        <v>-1.091635892624411</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5468,22 +5492,22 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>119953.9079808957</v>
+        <v>66559.18098567177</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>258400.5135339614</v>
+        <v>147182.0124865231</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-138446.6055530657</v>
+        <v>-80622.8315008513</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-6150417.214633333</v>
+        <v>-3573857.687898965</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-38150417.21463333</v>
+        <v>-6773857.687898965</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>-0.1922005379572916</v>
+        <v>-1.116830527468426</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5498,22 +5522,22 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>121331.464652946</v>
+        <v>67498.5984897095</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>258827.2829905207</v>
+        <v>147425.0955463248</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-137495.8183375747</v>
+        <v>-79926.49705661532</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-6287913.032970907</v>
+        <v>-3653784.18495558</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-38287913.03297091</v>
+        <v>-6853784.18495558</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>-0.1964972822803409</v>
+        <v>-1.141807557798619</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5528,22 +5552,22 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>122518.6239355858</v>
+        <v>68295.21795168938</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>259254.7572915346</v>
+        <v>147668.5800775629</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-136736.1333559488</v>
+        <v>-79373.36212587351</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-6424649.166326856</v>
+        <v>-3733157.547081454</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-38424649.16632686</v>
+        <v>-6933157.547081454</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>-0.2007702864477142</v>
+        <v>-1.166611733462954</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -5558,22 +5582,22 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>123447.3044099988</v>
+        <v>68897.97830749908</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>259682.9376011112</v>
+        <v>147912.4667433001</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-136235.6331911124</v>
+        <v>-79014.48843580103</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>-6560884.799517969</v>
+        <v>-3812172.035517255</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-38560884.79951797</v>
+        <v>-7012172.035517255</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>-0.2050276499849365</v>
+        <v>-1.191303761099142</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -5588,22 +5612,22 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>124072.5137994925</v>
+        <v>69273.13534961938</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>260111.8250852809</v>
+        <v>148156.7562076942</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-136039.3112857884</v>
+        <v>-78883.62085807486</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>-6696924.110803757</v>
+        <v>-3891055.65637533</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-38696924.11080375</v>
+        <v>-7091055.65637533</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>-0.2092788784626174</v>
+        <v>-1.215954892617291</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -5618,22 +5642,22 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>124376.3679955774</v>
+        <v>69407.27599668305</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>260541.420912</v>
+        <v>148401.449136</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-136165.0529164226</v>
+        <v>-78994.17313931696</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>-6833089.163720179</v>
+        <v>-3970049.829514647</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-38833089.16372018</v>
+        <v>-7170049.829514647</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>-0.2135340363662556</v>
+        <v>-1.240640571723327</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -5648,22 +5672,22 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>124369.6885921146</v>
+        <v>69308.51644408592</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>260971.726251154</v>
+        <v>148646.5461945709</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-136602.0376590395</v>
+        <v>-79338.02975048497</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>-6969691.201379219</v>
+        <v>-4049387.859265132</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-38969691.20137922</v>
+        <v>-7249387.859265132</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>-0.2178028500431006</v>
+        <v>-1.265433706020354</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -5678,22 +5702,22 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>124091.0362245656</v>
+        <v>69005.77716842422</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>261402.7422745602</v>
+        <v>148892.0480508608</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-137311.7060499946</v>
+        <v>-79886.27088243663</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-7107002.907429214</v>
+        <v>-4129274.130147568</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-39107002.90742921</v>
+        <v>-7329274.130147569</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>-0.2220938408571629</v>
+        <v>-1.290398165671115</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -5708,22 +5732,22 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>123578.2660632702</v>
+        <v>68521.19954745265</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>261834.4701559716</v>
+        <v>149137.9553734263</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-138256.2040927014</v>
+        <v>-80616.75582597361</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-7245259.111521915</v>
+        <v>-4209890.885973542</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-39245259.11152191</v>
+        <v>-7409890.885973542</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>-0.2264143472350598</v>
+        <v>-1.315590901866732</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5738,22 +5762,22 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>122937.913148278</v>
+        <v>67940.9348612085</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>262266.9110710794</v>
+        <v>149384.2688319276</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-139328.9979228014</v>
+        <v>-81443.33397071912</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-7384588.109444716</v>
+        <v>-4291334.219944261</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-39384588.10944472</v>
+        <v>-7491334.219944261</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>-0.2307683784201474</v>
+        <v>-1.341041943732582</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -5768,22 +5792,22 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>122262.9091070529</v>
+        <v>67334.6818302897</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>262700.0661975167</v>
+        <v>149630.9890971314</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-140437.1570904638</v>
+        <v>-82296.30726684174</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>-7525025.26653518</v>
+        <v>-4373630.527211103</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-39525025.26653518</v>
+        <v>-7573630.527211103</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>-0.2351570395792244</v>
+        <v>-1.36675953975347</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5798,22 +5822,22 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>121649.2808489655</v>
+        <v>66774.46063672414</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>263133.9367148617</v>
+        <v>149878.1168409121</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-141484.6558658962</v>
+        <v>-83103.65620418795</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-7666509.922401076</v>
+        <v>-4456734.183415291</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-39666509.92240108</v>
+        <v>-7656734.183415291</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>-0.2395784350750336</v>
+        <v>-1.392729432317278</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5828,22 +5852,22 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>121187.5727674712</v>
+        <v>66328.17957560337</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>263568.5238046406</v>
+        <v>150125.6527362535</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-142380.9510371695</v>
+        <v>-83797.47316065017</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>-7808890.873438246</v>
+        <v>-4540531.656575941</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-39808890.87343825</v>
+        <v>-7740531.656575941</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>-0.2440278397949452</v>
+        <v>-1.418916142679982</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5858,22 +5882,22 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>120954.7586791066</v>
+        <v>66053.56900932993</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>264003.8286503311</v>
+        <v>150373.5974572513</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-143049.0699712245</v>
+        <v>-84320.02844792134</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-7951939.94340947</v>
+        <v>-4624851.685023863</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-39951939.94340947</v>
+        <v>-7824851.685023863</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>-0.2484981232315459</v>
+        <v>-1.445266151569957</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5888,22 +5912,22 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>121007.3659817061</v>
+        <v>65993.02448627958</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>264439.8524373653</v>
+        <v>150621.9516791142</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-143432.4864556592</v>
+        <v>-84628.92719283458</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>-8095372.429865129</v>
+        <v>-4709480.612216697</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-40095372.42986513</v>
+        <v>-7909480.612216697</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>-0.2529803884332853</v>
+        <v>-1.471712691317718</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5918,22 +5942,22 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>121376.4262303057</v>
+        <v>66169.8196727293</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>264876.5963531334</v>
+        <v>150870.7160781661</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-143500.1701228277</v>
+        <v>-84700.8964054368</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-8238872.599987957</v>
+        <v>-4794181.508622134</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-40238872.59998795</v>
+        <v>-7994181.508622134</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>-0.2574647687496237</v>
+        <v>-1.498181721444417</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5948,22 +5972,22 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>122064.7031807517</v>
+        <v>66586.02738556379</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>265314.0615869865</v>
+        <v>151119.8913318481</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-143249.3584062347</v>
+        <v>-84533.86394628434</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-8382121.958394191</v>
+        <v>-4878715.372568418</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-40382121.95839419</v>
+        <v>-8078715.372568418</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>-0.2619413111998184</v>
+        <v>-1.524598553927631</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5997,7 +6021,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GridEdge Compute Center - Financial Summary</t>
+          <t>GridEdge Compute Center - Phase I Financial Model (2.5MW Modular)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -6021,7 +6045,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>32000000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="5">
@@ -6032,7 +6056,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6091,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>104786.3894103451</v>
+        <v>58699.16705775886</v>
       </c>
     </row>
     <row r="10">
@@ -6077,7 +6101,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1257436.672924142</v>
+        <v>704390.0046931063</v>
       </c>
     </row>
     <row r="11">
@@ -6099,7 +6123,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>242898.5277323369</v>
+        <v>138352.2565521537</v>
       </c>
     </row>
     <row r="14">
@@ -6109,7 +6133,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2914782.332788043</v>
+        <v>1660227.078625844</v>
       </c>
     </row>
     <row r="15">
@@ -6119,7 +6143,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-138112.1383219918</v>
+        <v>-79653.08949439481</v>
       </c>
     </row>
     <row r="16">
@@ -6153,7 +6177,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8382121.958394191</v>
+        <v>-4878715.372568418</v>
       </c>
     </row>
     <row r="20">
@@ -6163,7 +6187,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2619413111998184</v>
+        <v>-1.524598553927631</v>
       </c>
     </row>
     <row r="21">
@@ -6223,6 +6247,453 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>$40,000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MW Added</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative MW</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CapEx Estimate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Target Year</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Phase I</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.5 MW</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2.5 MW</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Q1 2026</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Geothermal, Spa reuse, Modular datacenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Phase II</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.5 MW</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.0 MW</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Q4 2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Expand GPU capacity, add staff housing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Phase III</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5-10 MW</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10-15 MW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2027-2028</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sovereign AI clusters, Grid services</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Total (3 Phases)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10-15 MW</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15 MW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~$10-12M</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-2028</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Full build-out capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Phase I Details</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ASIC Mining</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.5 MW</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bitcoin generation focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPU Clusters</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.0 MW</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AI/ML workload hosting</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Waste Heat Recovery</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spa partnership integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Geothermal Connection</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LaGeo PPA for baseload power</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Phase II Expansion</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Additional GPUs</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.5 MW</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Scale AI hosting capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Enhanced ASIC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.0 MW</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Next-gen mining hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Staff Housing</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>On-site accommodation facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Grid Integration</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Enhanced grid services capability</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Phase III Vision</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sovereign AI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5-10 MW</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>National AI infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Grid Stabilization</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Frequency regulation services</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Export Capacity</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Regional power market participation</t>
         </is>
       </c>
     </row>

--- a/financial_model.xlsx
+++ b/financial_model.xlsx
@@ -13,6 +13,7 @@
     <sheet name="ROI Timeline" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Executive Summary" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Phased Build Plan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Financing Options" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,18 +512,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.5 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bitcoin mining hardware - Phase I</t>
+          <t>Bitcoin mining hardware - S21/T21</t>
         </is>
       </c>
     </row>
@@ -539,18 +540,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1 MW</t>
+          <t>2.5 MW</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2000000</v>
+        <v>1750000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AI/ML workloads - modular</t>
+          <t>AI/ML workloads - A6000/H100 mix</t>
         </is>
       </c>
     </row>
@@ -567,14 +568,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.5 MW</t>
+          <t>5 MW</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>375000</v>
+        <v>500000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -595,11 +596,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.5 MW</t>
+          <t>5 MW</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>250000</v>
@@ -620,7 +621,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4425000</v>
+        <v>4000000</v>
       </c>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -637,14 +638,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2500 sq ft</t>
+          <t>5000 sq ft</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>750000</v>
+        <v>1000000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -669,10 +670,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -688,7 +689,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Security Systems</t>
+          <t>Security &amp; Access</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,10 +698,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -718,7 +719,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1050000</v>
+        <v>1230000</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -735,14 +736,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5 MW</t>
+          <t>5 MW</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -758,23 +759,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Solar Array</t>
+          <t>Battery Storage</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1 MW</t>
+          <t>1000 kWh</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1200000</v>
+        <v>400000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Backup and peak shaving</t>
+          <t>Grid stabilization</t>
         </is>
       </c>
     </row>
@@ -786,23 +787,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Battery Storage</t>
+          <t>Gas Generators</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>500 kWh</t>
+          <t>2 MW</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grid stabilization</t>
+          <t>Emergency backup</t>
         </is>
       </c>
     </row>
@@ -814,23 +815,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gas Generators</t>
+          <t>HVAC Systems</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1 MW</t>
+          <t>5 MW</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Emergency backup</t>
+          <t>Cooling with heat recovery</t>
         </is>
       </c>
     </row>
@@ -842,137 +843,143 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HVAC Systems</t>
+          <t>Electrical Distribution</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.5 MW</t>
+          <t>5 MW</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cooling with heat recovery</t>
+          <t>Transformers, switchgear</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Power &amp; Cooling</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Electrical Distribution</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2.5 MW</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>400</v>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Power &amp; Cooling Subtotal:</t>
+        </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Transformers, switchgear</t>
-        </is>
-      </c>
+        <v>4100000</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Power &amp; Cooling Subtotal:</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Legal &amp; Admin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Permits &amp; Legal</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1 project</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>200000</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6900000</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>200000</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Government approvals</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Base Project Cost:</t>
-        </is>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Legal &amp; Admin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1 project</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>120000</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>12375000</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>120000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Engineering, consulting</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Contingency</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>15% Buffer</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Legal &amp; Admin Subtotal:</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="n">
-        <v>1856250</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Risk mitigation</t>
-        </is>
-      </c>
+        <v>320000</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Pre-Contingency Total:</t>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Base Project Cost:</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>14231250</v>
+        <v>9650000</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Value Engineering</t>
+          <t>Contingency</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cost Optimization</t>
+          <t>10% Buffer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>-11031250</v>
+        <v>965000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Modular approach savings</t>
+          <t>Risk mitigation</t>
         </is>
       </c>
     </row>
@@ -980,17 +987,53 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Phase I Target CapEx:</t>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Total 5MW CapEx:</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Investor-ready budget</t>
+        <v>10615000</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Target Optimization</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Value Engineering</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="n">
+        <v>-4615000</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Modular &amp; local partnerships</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Strategic Target CapEx:</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Investor-ready 5MW deployment</t>
         </is>
       </c>
     </row>
@@ -1060,19 +1103,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>56000</v>
+        <v>110000</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>672000</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="3">
@@ -1082,19 +1125,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>40199.99999999999</v>
+        <v>85424.99999999999</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14297.90455798562</v>
+        <v>23829.84092997603</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2525</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>57022.90455798561</v>
+        <v>111779.840929976</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>684274.8546958274</v>
+        <v>1341358.091159712</v>
       </c>
     </row>
     <row r="4">
@@ -1104,19 +1147,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>40400</v>
+        <v>85850</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>15024.53467816659</v>
+        <v>25040.89113027766</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2550</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>57974.53467816659</v>
+        <v>113440.8911302777</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>695694.4161379992</v>
+        <v>1361290.693563332</v>
       </c>
     </row>
     <row r="5">
@@ -1126,19 +1169,19 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>40599.99999999999</v>
+        <v>86274.99999999999</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>15614.9826559942</v>
+        <v>26024.97109332367</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2575</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>58789.9826559942</v>
+        <v>114874.9710933237</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>705479.7918719305</v>
+        <v>1378499.653119884</v>
       </c>
     </row>
     <row r="6">
@@ -1148,19 +1191,19 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>40800</v>
+        <v>86700</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>16016.50553211151</v>
+        <v>26694.17588685252</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2600</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>59416.50553211151</v>
+        <v>115994.1758868525</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>712998.0663853382</v>
+        <v>1391930.11064223</v>
       </c>
     </row>
     <row r="7">
@@ -1170,19 +1213,19 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41000</v>
+        <v>87124.99999999999</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>16193.23646383095</v>
+        <v>26988.72743971825</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>2625</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>59818.23646383095</v>
+        <v>116738.7274397182</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>717818.8375659714</v>
+        <v>1400864.729276619</v>
       </c>
     </row>
     <row r="8">
@@ -1192,19 +1235,19 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>41200</v>
+        <v>87550</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>16129.38860337113</v>
+        <v>26882.31433895188</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>2650</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>59979.38860337112</v>
+        <v>117082.3143389519</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>719752.6632404535</v>
+        <v>1404987.772067423</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1257,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41400</v>
+        <v>87975</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>15830.66528995196</v>
+        <v>26384.44214991993</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2675</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>59905.66528995196</v>
+        <v>117034.4421499199</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>718867.9834794236</v>
+        <v>1404413.305799039</v>
       </c>
     </row>
     <row r="10">
@@ -1236,19 +1279,19 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>41600</v>
+        <v>88400</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>15323.75058748811</v>
+        <v>25539.58431248018</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2700</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>59623.75058748811</v>
+        <v>116639.5843124802</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>715485.0070498573</v>
+        <v>1399675.011749762</v>
       </c>
     </row>
     <row r="11">
@@ -1258,19 +1301,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>41800</v>
+        <v>88825</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>14653.92567663134</v>
+        <v>24423.20946105224</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>2725</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>59178.92567663134</v>
+        <v>115973.2094610522</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>710147.1081195761</v>
+        <v>1391678.513532627</v>
       </c>
     </row>
     <row r="12">
@@ -1280,19 +1323,19 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42000</v>
+        <v>89250</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>13881.02402176164</v>
+        <v>23135.0400362694</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>2750</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>58631.02402176164</v>
+        <v>115135.0400362694</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>703572.2882611396</v>
+        <v>1381620.480435233</v>
       </c>
     </row>
     <row r="13">
@@ -1302,19 +1345,19 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42200</v>
+        <v>89675</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>13074.08662581323</v>
+        <v>21790.14437635538</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2775</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>58049.08662581323</v>
+        <v>114240.1443763554</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>696589.0395097588</v>
+        <v>1370881.732516265</v>
       </c>
     </row>
     <row r="14">
@@ -1324,19 +1367,19 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42400</v>
+        <v>90100</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>12305.1948031039</v>
+        <v>20508.65800517317</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2800</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>57505.1948031039</v>
+        <v>113408.6580051732</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>690062.3376372468</v>
+        <v>1360903.896062078</v>
       </c>
     </row>
     <row r="15">
@@ -1346,19 +1389,19 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42600</v>
+        <v>90525</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>11643.03137020327</v>
+        <v>19405.05228367212</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2825</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>57068.03137020327</v>
+        <v>112755.0522836721</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>684816.3764424393</v>
+        <v>1353060.627404065</v>
       </c>
     </row>
     <row r="16">
@@ -1368,19 +1411,19 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42800</v>
+        <v>90950</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>11146.74541448331</v>
+        <v>18577.90902413885</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>2850</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>56796.74541448331</v>
+        <v>112377.9090241388</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>681560.9449737997</v>
+        <v>1348534.908289666</v>
       </c>
     </row>
     <row r="17">
@@ -1390,19 +1433,19 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43000</v>
+        <v>91375</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>10860.66868230424</v>
+        <v>18101.11447050707</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>2875</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>56735.66868230424</v>
+        <v>112351.1144705071</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>680828.0241876509</v>
+        <v>1348213.373646085</v>
       </c>
     </row>
     <row r="18">
@@ -1412,19 +1455,19 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43200</v>
+        <v>91800</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>10810.35555614323</v>
+        <v>18017.25926023872</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>2900</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>56910.35555614323</v>
+        <v>112717.2592602387</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>682924.2666737188</v>
+        <v>1352607.111122865</v>
       </c>
     </row>
     <row r="19">
@@ -1434,19 +1477,19 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43400</v>
+        <v>92225</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>11000.30035771512</v>
+        <v>18333.8339295252</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>2925</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>57325.30035771512</v>
+        <v>113483.8339295252</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>687903.6042925816</v>
+        <v>1361806.007154302</v>
       </c>
     </row>
     <row r="20">
@@ -1456,19 +1499,19 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43600</v>
+        <v>92650</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>11413.53588359883</v>
+        <v>19022.55980599805</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>2950</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>57963.53588359883</v>
+        <v>114622.5598059981</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>695562.4306031859</v>
+        <v>1375470.717671977</v>
       </c>
     </row>
     <row r="21">
@@ -1478,19 +1521,19 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43800</v>
+        <v>93075</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>12013.14903498638</v>
+        <v>20021.91505831063</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2975</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>58788.14903498637</v>
+        <v>116071.9150583106</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>705457.7884198364</v>
+        <v>1392862.980699728</v>
       </c>
     </row>
     <row r="22">
@@ -1500,19 +1543,19 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44000</v>
+        <v>93500.00000000001</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>12745.5781548629</v>
+        <v>21242.63025810483</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>3000</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>59745.5781548629</v>
+        <v>117742.6302581049</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>716946.9378583548</v>
+        <v>1412911.563097258</v>
       </c>
     </row>
     <row r="23">
@@ -1522,19 +1565,19 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44200</v>
+        <v>93925</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>13545.39753130774</v>
+        <v>22575.66255217957</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3025</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>60770.39753130774</v>
+        <v>119525.6625521796</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>729244.7703756929</v>
+        <v>1434307.950626155</v>
       </c>
     </row>
     <row r="24">
@@ -1544,19 +1587,19 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44400.00000000001</v>
+        <v>94350.00000000001</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>14341.16168148612</v>
+        <v>23901.9361358102</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3050</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>61791.16168148613</v>
+        <v>121301.9361358102</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>741493.9401778335</v>
+        <v>1455623.233629723</v>
       </c>
     </row>
     <row r="25">
@@ -1566,19 +1609,19 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44600</v>
+        <v>94775</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>15061.78736384814</v>
+        <v>25102.9789397469</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>3075</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>62736.78736384814</v>
+        <v>122952.9789397469</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>752841.4483661777</v>
+        <v>1475435.747276963</v>
       </c>
     </row>
     <row r="26">
@@ -1588,19 +1631,19 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44800.00000000001</v>
+        <v>95200.00000000001</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>15642.90323239271</v>
+        <v>26071.50538732119</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>3100</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>63542.90323239272</v>
+        <v>124371.5053873212</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>762514.8387887126</v>
+        <v>1492458.064647854</v>
       </c>
     </row>
     <row r="27">
@@ -1610,19 +1653,19 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45000</v>
+        <v>95625</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>16032.5999372918</v>
+        <v>26720.99989548633</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3125</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>64157.59993729179</v>
+        <v>125470.9998954863</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>769891.1992475016</v>
+        <v>1505651.998745836</v>
       </c>
     </row>
     <row r="28">
@@ -1632,19 +1675,19 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45199.99999999999</v>
+        <v>96049.99999999999</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>16196.06703251143</v>
+        <v>26993.44505418572</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3150</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>64546.06703251143</v>
+        <v>126193.4450541857</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>774552.8043901371</v>
+        <v>1514321.340650229</v>
       </c>
     </row>
     <row r="29">
@@ -1654,19 +1697,19 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45400</v>
+        <v>96475</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>16118.70248928173</v>
+        <v>26864.50414880289</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>3175</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>64693.70248928173</v>
+        <v>126514.5041488029</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>776324.4298713808</v>
+        <v>1518174.049785635</v>
       </c>
     </row>
     <row r="30">
@@ -1676,19 +1719,19 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45600.00000000001</v>
+        <v>96900.00000000001</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>15807.41705183836</v>
+        <v>26345.69508639726</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>3200</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>64607.41705183836</v>
+        <v>126445.6950863973</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>775289.0046220603</v>
+        <v>1517348.341036767</v>
       </c>
     </row>
     <row r="31">
@@ -1698,19 +1741,19 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45800</v>
+        <v>97325</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>15290.0169212219</v>
+        <v>25483.36153536983</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>3225</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>64315.0169212219</v>
+        <v>126033.3615353698</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>771780.2030546628</v>
+        <v>1512400.338424438</v>
       </c>
     </row>
     <row r="32">
@@ -1720,19 +1763,19 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>46000</v>
+        <v>97749.99999999999</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>14612.71991015274</v>
+        <v>24354.53318358791</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>3250</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>63862.71991015274</v>
+        <v>125354.5331835879</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>766352.6389218329</v>
+        <v>1504254.398203055</v>
       </c>
     </row>
     <row r="33">
@@ -1742,19 +1785,19 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46200</v>
+        <v>98175</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>13836.02694346907</v>
+        <v>23060.04490578179</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>3275</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>63311.02694346907</v>
+        <v>124510.0449057818</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>759732.3233216288</v>
+        <v>1494120.538869381</v>
       </c>
     </row>
     <row r="34">
@@ -1764,19 +1807,19 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>46400</v>
+        <v>98600</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>13029.31769069796</v>
+        <v>21715.52948449659</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>3300</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>62729.31769069796</v>
+        <v>123615.5294844966</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>752751.8122883755</v>
+        <v>1483386.353813959</v>
       </c>
     </row>
     <row r="35">
@@ -1786,19 +1829,19 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46600</v>
+        <v>99025</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>12264.65308680663</v>
+        <v>20441.08847801105</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>3325</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>62189.65308680663</v>
+        <v>122791.0884780111</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>746275.8370416795</v>
+        <v>1473493.061736132</v>
       </c>
     </row>
     <row r="36">
@@ -1808,19 +1851,19 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>46800</v>
+        <v>99450</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>11610.33834349743</v>
+        <v>19350.56390582906</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>3350</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>61760.33834349744</v>
+        <v>122150.5639058291</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>741124.0601219693</v>
+        <v>1465806.766869949</v>
       </c>
     </row>
     <row r="37">
@@ -1830,19 +1873,19 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>47000</v>
+        <v>99875</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>11124.82144807649</v>
+        <v>18541.36908012748</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>3375</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>61499.82144807649</v>
+        <v>121791.3690801275</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>737997.8573769178</v>
+        <v>1461496.42896153</v>
       </c>
     </row>
     <row r="38">
@@ -1852,19 +1895,19 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>47200</v>
+        <v>100300</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>10851.47217882047</v>
+        <v>18085.78696470079</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>3400</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>61451.47217882048</v>
+        <v>121785.7869647008</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>737417.6661458458</v>
+        <v>1461429.443576409</v>
       </c>
     </row>
     <row r="39">
@@ -1874,19 +1917,19 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>47400</v>
+        <v>100725</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>10814.70801184923</v>
+        <v>18024.51335308205</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>3425</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>61639.70801184923</v>
+        <v>122174.513353082</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>739676.4961421908</v>
+        <v>1466094.160236984</v>
       </c>
     </row>
     <row r="40">
@@ -1896,19 +1939,19 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>47600</v>
+        <v>101150</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>11017.81298070538</v>
+        <v>18363.02163450896</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>3450</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>62067.81298070538</v>
+        <v>122963.021634509</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>744813.7557684645</v>
+        <v>1475556.259614107</v>
       </c>
     </row>
     <row r="41">
@@ -1918,19 +1961,19 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>47800</v>
+        <v>101575</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>11442.64432341861</v>
+        <v>19071.07387236435</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>3475</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>62717.64432341861</v>
+        <v>124121.0738723643</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>752611.7318810233</v>
+        <v>1489452.886468372</v>
       </c>
     </row>
     <row r="42">
@@ -1940,19 +1983,19 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>48000</v>
+        <v>102000</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>12051.25312139882</v>
+        <v>20085.42186899804</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>3500</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>63551.25312139883</v>
+        <v>125585.421868998</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>762615.0374567859</v>
+        <v>1507025.062427976</v>
       </c>
     </row>
     <row r="43">
@@ -1962,19 +2005,19 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>48200</v>
+        <v>102425</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>12789.27416331233</v>
+        <v>21315.45693885389</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>3525</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>64514.27416331234</v>
+        <v>127265.4569388539</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>774171.289959748</v>
+        <v>1527185.483266247</v>
       </c>
     </row>
     <row r="44">
@@ -1984,19 +2027,19 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>48400</v>
+        <v>102850</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>13590.78222749707</v>
+        <v>22651.30371249511</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>3550</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>65540.78222749707</v>
+        <v>129051.3037124951</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>786489.3867299648</v>
+        <v>1548615.644549941</v>
       </c>
     </row>
     <row r="45">
@@ -2006,19 +2049,19 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>48600</v>
+        <v>103275</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>14384.18098567177</v>
+        <v>23973.63497611962</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>3575</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>66559.18098567177</v>
+        <v>130823.6349761196</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>798710.1718280613</v>
+        <v>1569883.619713435</v>
       </c>
     </row>
     <row r="46">
@@ -2028,19 +2071,19 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>48800</v>
+        <v>103700</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>15098.5984897095</v>
+        <v>25164.3308161825</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3600</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>67498.5984897095</v>
+        <v>132464.3308161825</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>809983.1818765141</v>
+        <v>1589571.96979419</v>
       </c>
     </row>
     <row r="47">
@@ -2050,19 +2093,19 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>49000</v>
+        <v>104125</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>15670.21795168938</v>
+        <v>26117.02991948229</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>3625</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>68295.21795168938</v>
+        <v>133867.0299194823</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>819542.6154202726</v>
+        <v>1606404.359033788</v>
       </c>
     </row>
     <row r="48">
@@ -2072,19 +2115,19 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>49200</v>
+        <v>104550</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>16047.97830749908</v>
+        <v>26746.63051249847</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>3650</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>68897.97830749908</v>
+        <v>134946.6305124985</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>826775.739689989</v>
+        <v>1619359.566149982</v>
       </c>
     </row>
     <row r="49">
@@ -2094,19 +2137,19 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>49400.00000000001</v>
+        <v>104975</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>16198.13534961938</v>
+        <v>26996.89224936563</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>3675</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>69273.13534961938</v>
+        <v>135646.8922493656</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>831277.6241954325</v>
+        <v>1627762.706992388</v>
       </c>
     </row>
     <row r="50">
@@ -2116,19 +2159,19 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>49600</v>
+        <v>105400</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>16107.27599668305</v>
+        <v>26845.45999447175</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>3700</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>69407.27599668305</v>
+        <v>135945.4599944717</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>832887.3119601966</v>
+        <v>1631345.519933661</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2181,19 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>49800.00000000001</v>
+        <v>105825</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>15783.51644408592</v>
+        <v>26305.8607401432</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>3725</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>69308.51644408592</v>
+        <v>135855.8607401432</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>831702.1973290311</v>
+        <v>1630270.328881719</v>
       </c>
     </row>
     <row r="52">
@@ -2160,19 +2203,19 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>50000</v>
+        <v>106250</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>15255.77716842421</v>
+        <v>25426.29528070703</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>69005.77716842422</v>
+        <v>135426.295280707</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>828069.3260210906</v>
+        <v>1625115.543368484</v>
       </c>
     </row>
     <row r="53">
@@ -2182,19 +2225,19 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>50199.99999999999</v>
+        <v>106675</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>14571.19954745266</v>
+        <v>24285.33257908776</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>68521.19954745265</v>
+        <v>134710.3325790878</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>822254.3945694318</v>
+        <v>1616523.990949053</v>
       </c>
     </row>
     <row r="54">
@@ -2204,19 +2247,19 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>50400</v>
+        <v>107100</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>13790.9348612085</v>
+        <v>22984.8914353475</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>67940.9348612085</v>
+        <v>133834.8914353475</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>815291.2183345021</v>
+        <v>1606018.69722417</v>
       </c>
     </row>
     <row r="55">
@@ -2226,19 +2269,19 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>50600.00000000001</v>
+        <v>107525</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>12984.68183028969</v>
+        <v>21641.13638381616</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>67334.6818302897</v>
+        <v>132916.1363838162</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>808016.1819634764</v>
+        <v>1594993.636605794</v>
       </c>
     </row>
     <row r="56">
@@ -2248,19 +2291,19 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>50800</v>
+        <v>107950</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>12224.46063672414</v>
+        <v>20374.1010612069</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>66774.46063672414</v>
+        <v>132074.1010612069</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>801293.5276406896</v>
+        <v>1584889.212734483</v>
       </c>
     </row>
     <row r="57">
@@ -2270,19 +2313,19 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>51000</v>
+        <v>108375</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>11578.17957560337</v>
+        <v>19296.96595933894</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>66328.17957560337</v>
+        <v>131421.9659593389</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>795938.1549072404</v>
+        <v>1577063.591512067</v>
       </c>
     </row>
     <row r="58">
@@ -2292,19 +2335,19 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>51200</v>
+        <v>108800</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>11103.56900932994</v>
+        <v>18505.94834888323</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>66053.56900932993</v>
+        <v>131055.9483488832</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>792642.8281119592</v>
+        <v>1572671.380186599</v>
       </c>
     </row>
     <row r="59">
@@ -2314,19 +2357,19 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>51400.00000000001</v>
+        <v>109225</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>10843.02448627956</v>
+        <v>18071.70747713261</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>65993.02448627958</v>
+        <v>131046.7074771326</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>791916.293835355</v>
+        <v>1572560.489725591</v>
       </c>
     </row>
     <row r="60">
@@ -2336,19 +2379,19 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>51600</v>
+        <v>109650</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>10819.81967272929</v>
+        <v>18033.03278788215</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>66169.8196727293</v>
+        <v>131433.0327878821</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>794037.8360727516</v>
+        <v>1577196.393454586</v>
       </c>
     </row>
     <row r="61">
@@ -2358,19 +2401,19 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>51800</v>
+        <v>110075</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>11036.0273855638</v>
+        <v>18393.37897593967</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3750</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>66586.02738556379</v>
+        <v>132218.3789759397</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>799032.3286267655</v>
+        <v>1586620.547711276</v>
       </c>
     </row>
   </sheetData>
@@ -2451,25 +2494,25 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>107100</v>
+        <v>153000</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>137100</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="3">
@@ -2479,25 +2522,25 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>107276.8843574357</v>
+        <v>153252.6919391938</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>15024.7737195288</v>
+        <v>13021.47055692496</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5008.257906509602</v>
+        <v>8013.212650415362</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2003.303162603841</v>
+        <v>3004.954743905761</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3004.954743905761</v>
+        <v>4006.606325207681</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5008.257906509602</v>
+        <v>4006.606325207681</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>137326.4317964933</v>
+        <v>185305.5425408552</v>
       </c>
     </row>
     <row r="4">
@@ -2507,25 +2550,25 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>107454.0608537687</v>
+        <v>153505.8012196695</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>15049.58835486956</v>
+        <v>13042.97657422028</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5016.529451623186</v>
+        <v>8026.447122597098</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2006.611780649275</v>
+        <v>3009.917670973912</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3009.917670973912</v>
+        <v>4013.223561298549</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5016.529451623186</v>
+        <v>4013.223561298549</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>137553.2375635078</v>
+        <v>185611.5897100579</v>
       </c>
     </row>
     <row r="5">
@@ -2535,25 +2578,25 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>107631.5299714901</v>
+        <v>153759.3285307002</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>15074.44397359806</v>
+        <v>13064.51811045165</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5024.814657866019</v>
+        <v>8039.703452585631</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2009.925863146408</v>
+        <v>3014.888794719611</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3014.888794719611</v>
+        <v>4019.851726292815</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5024.814657866019</v>
+        <v>4019.851726292815</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>137780.4179186862</v>
+        <v>185918.1423410427</v>
       </c>
     </row>
     <row r="6">
@@ -2563,25 +2606,25 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>107809.2921938881</v>
+        <v>154013.2745626973</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>15099.3406434017</v>
+        <v>13086.09522428147</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5033.113547800565</v>
+        <v>8052.981676480904</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2013.245419120226</v>
+        <v>3019.868128680339</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3019.868128680339</v>
+        <v>4026.490838240452</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5033.113547800565</v>
+        <v>4026.490838240452</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>138007.9734806915</v>
+        <v>186225.2012686209</v>
       </c>
     </row>
     <row r="7">
@@ -2591,25 +2634,25 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>107987.3480050488</v>
+        <v>154267.6400072125</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>15124.27843207966</v>
+        <v>13107.70797446904</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5041.426144026553</v>
+        <v>8066.281830442485</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2016.570457610621</v>
+        <v>3024.855686415932</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3024.855686415932</v>
+        <v>4033.140915221242</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5041.426144026553</v>
+        <v>4033.140915221242</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>138235.9048692081</v>
+        <v>186532.7673289824</v>
       </c>
     </row>
     <row r="8">
@@ -2619,25 +2662,25 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>108165.6978898579</v>
+        <v>154522.4255569398</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>15149.25740754312</v>
+        <v>13129.3564198707</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5049.752469181039</v>
+        <v>8079.603950689662</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2019.900987672416</v>
+        <v>3029.851481508624</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3029.851481508624</v>
+        <v>4039.801975344831</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5049.752469181039</v>
+        <v>4039.801975344831</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>138464.2127049441</v>
+        <v>186840.8413596984</v>
       </c>
     </row>
     <row r="9">
@@ -2647,25 +2690,25 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>108344.3423340019</v>
+        <v>154777.631905717</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>15174.27763781539</v>
+        <v>13151.04061944001</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5058.092545938464</v>
+        <v>8092.948073501542</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2023.237018375386</v>
+        <v>3034.855527563078</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3034.855527563078</v>
+        <v>4046.474036750771</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5058.092545938464</v>
+        <v>4046.474036750771</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>138692.8976096327</v>
+        <v>187149.4241997232</v>
       </c>
     </row>
     <row r="10">
@@ -2675,25 +2718,25 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>108523.2818239696</v>
+        <v>155033.259748528</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>15199.33919103215</v>
+        <v>13172.76063222787</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5066.446397010717</v>
+        <v>8106.314235217148</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2026.578558804287</v>
+        <v>3039.86783820643</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3039.86783820643</v>
+        <v>4053.157117608574</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5066.446397010717</v>
+        <v>4053.157117608574</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>138921.9602060339</v>
+        <v>187458.5166893966</v>
       </c>
     </row>
     <row r="11">
@@ -2703,25 +2746,25 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>108702.5168470531</v>
+        <v>155289.3097815044</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>15224.4421354416</v>
+        <v>13194.51651738272</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5074.814045147201</v>
+        <v>8119.702472235522</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2029.92561805888</v>
+        <v>3044.888427088321</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3044.888427088321</v>
+        <v>4059.851236117761</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5074.814045147201</v>
+        <v>4059.851236117761</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>139151.4011179363</v>
+        <v>187768.1196704464</v>
       </c>
     </row>
     <row r="12">
@@ -2731,25 +2774,25 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>108882.0478913493</v>
+        <v>155545.7827019276</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>15249.58653940467</v>
+        <v>13216.30833415071</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5083.195513134889</v>
+        <v>8133.112821015821</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2033.278205253955</v>
+        <v>3049.917307880933</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3049.917307880933</v>
+        <v>4066.556410507911</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5083.195513134889</v>
+        <v>4066.556410507911</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>139381.2209701586</v>
+        <v>188078.2339859909</v>
       </c>
     </row>
     <row r="13">
@@ -2759,25 +2802,25 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>109061.8754457615</v>
+        <v>155802.6792082306</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>15274.77247139516</v>
+        <v>13238.1361418758</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5091.590823798387</v>
+        <v>8146.545318077418</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2036.636329519355</v>
+        <v>3054.954494279032</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3054.954494279032</v>
+        <v>4073.272659038709</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5091.590823798387</v>
+        <v>4073.272659038709</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>139611.4203885517</v>
+        <v>188388.8604805403</v>
       </c>
     </row>
     <row r="14">
@@ -2787,25 +2830,25 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>109242</v>
+        <v>156060</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>15300</v>
+        <v>13260</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5100</v>
+        <v>8160</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2040</v>
+        <v>3060</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3060</v>
+        <v>4080</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5100</v>
+        <v>4080</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>139842</v>
+        <v>188700</v>
       </c>
     </row>
     <row r="15">
@@ -2815,25 +2858,25 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>109422.4220445844</v>
+        <v>156317.7457779777</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>15325.26919391938</v>
+        <v>13281.89996806346</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5108.423064639794</v>
+        <v>8173.476903423669</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2043.369225855917</v>
+        <v>3065.053838783876</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3065.053838783876</v>
+        <v>4086.738451711834</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5108.423064639794</v>
+        <v>4086.738451711834</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>140072.9604324231</v>
+        <v>189011.6533916724</v>
       </c>
     </row>
     <row r="16">
@@ -2843,25 +2886,25 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>109603.142070844</v>
+        <v>156575.9172440629</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>15350.58012196695</v>
+        <v>13303.83610570469</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5116.86004065565</v>
+        <v>8186.97606504904</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2046.74401626226</v>
+        <v>3070.11602439339</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3070.11602439339</v>
+        <v>4093.48803252452</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5116.86004065565</v>
+        <v>4093.48803252452</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>140304.3023147779</v>
+        <v>189323.821504259</v>
       </c>
     </row>
     <row r="17">
@@ -2871,25 +2914,25 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>109784.16057092</v>
+        <v>156834.5151013142</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>15375.93285307002</v>
+        <v>13325.80847266068</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>5125.31095102334</v>
+        <v>8200.497521637344</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2050.124380409336</v>
+        <v>3075.186570614004</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3075.186570614004</v>
+        <v>4100.248760818672</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5125.31095102334</v>
+        <v>4100.248760818672</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>140536.02627706</v>
+        <v>189636.5051878636</v>
       </c>
     </row>
     <row r="18">
@@ -2899,25 +2942,25 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>109965.4780377659</v>
+        <v>157093.5400539512</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>15401.32745626973</v>
+        <v>13347.8171287671</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5133.775818756576</v>
+        <v>8214.041310010522</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2053.51032750263</v>
+        <v>3080.265491253946</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3080.265491253946</v>
+        <v>4107.020655005261</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5133.775818756576</v>
+        <v>4107.020655005261</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>140768.1329503053</v>
+        <v>189949.7052939933</v>
       </c>
     </row>
     <row r="19">
@@ -2927,25 +2970,25 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>110147.0949651498</v>
+        <v>157352.9928073568</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>15426.76400072125</v>
+        <v>13369.86213395842</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5142.254666907084</v>
+        <v>8227.607467051335</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2056.901866762834</v>
+        <v>3085.352800144251</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3085.352800144251</v>
+        <v>4113.803733525668</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5142.254666907084</v>
+        <v>4113.803733525668</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>141000.6229665923</v>
+        <v>190263.4226755621</v>
       </c>
     </row>
     <row r="20">
@@ -2955,25 +2998,25 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>110329.011847655</v>
+        <v>157612.8740680786</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>15452.24255569398</v>
+        <v>13391.94354826812</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5150.74751856466</v>
+        <v>8241.196029703457</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2060.299007425864</v>
+        <v>3090.448511138796</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3090.448511138796</v>
+        <v>4120.598014851728</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5150.74751856466</v>
+        <v>4120.598014851728</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>141233.496959043</v>
+        <v>190577.6581868924</v>
       </c>
     </row>
     <row r="21">
@@ -2983,25 +3026,25 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>110511.229180682</v>
+        <v>157873.1845438313</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>15477.7631905717</v>
+        <v>13414.06143182881</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>5159.254396857234</v>
+        <v>8254.807034971574</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2063.701758742894</v>
+        <v>3095.55263811434</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3095.55263811434</v>
+        <v>4127.403517485787</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5159.254396857234</v>
+        <v>4127.403517485787</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>141466.7555618254</v>
+        <v>190892.4126837176</v>
       </c>
     </row>
     <row r="22">
@@ -3011,25 +3054,25 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>110693.747460449</v>
+        <v>158133.9249434985</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>15503.32597485279</v>
+        <v>13436.21584487242</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5167.775324950931</v>
+        <v>8268.440519921491</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2067.110129980373</v>
+        <v>3100.665194970559</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3100.665194970559</v>
+        <v>4134.220259960745</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5167.775324950931</v>
+        <v>4134.220259960745</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>141700.3994101546</v>
+        <v>191207.6870231845</v>
       </c>
     </row>
     <row r="23">
@@ -3039,25 +3082,25 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>110876.5671839941</v>
+        <v>158395.0959771344</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>15528.93097815044</v>
+        <v>13458.40684773038</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>5176.310326050146</v>
+        <v>8282.096521680232</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2070.524130420058</v>
+        <v>3105.786195630087</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3105.786195630087</v>
+        <v>4141.048260840116</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5176.310326050146</v>
+        <v>4141.048260840116</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>141934.429140295</v>
+        <v>191523.4820638554</v>
       </c>
     </row>
     <row r="24">
@@ -3067,25 +3110,25 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>111059.6888491763</v>
+        <v>158656.6983559661</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>15554.57827019276</v>
+        <v>13480.63450083372</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5184.859423397586</v>
+        <v>8295.775077436138</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2073.943769359034</v>
+        <v>3110.915654038552</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3110.915654038552</v>
+        <v>4147.887538718069</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5184.859423397586</v>
+        <v>4147.887538718069</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>142168.8453895618</v>
+        <v>191839.7986657107</v>
       </c>
     </row>
     <row r="25">
@@ -3095,25 +3138,25 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>111243.1129546767</v>
+        <v>158918.7327923953</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>15580.26792082306</v>
+        <v>13502.89886471332</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5193.422640274354</v>
+        <v>8309.476224438968</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2077.369056109742</v>
+        <v>3116.053584164613</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3116.053584164613</v>
+        <v>4154.738112219484</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5193.422640274354</v>
+        <v>4154.738112219484</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>142403.6487963228</v>
+        <v>192156.6376901511</v>
       </c>
     </row>
     <row r="26">
@@ -3123,25 +3166,25 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>111426.84</v>
+        <v>159181.2</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>15606</v>
+        <v>13525.2</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5202</v>
+        <v>8323.200000000001</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2080.8</v>
+        <v>3121.2</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3121.2</v>
+        <v>4161.6</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5202</v>
+        <v>4161.6</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>142638.84</v>
+        <v>192474</v>
       </c>
     </row>
     <row r="27">
@@ -3151,25 +3194,25 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>111610.8704854761</v>
+        <v>159444.1006935372</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>15631.77457779777</v>
+        <v>13547.53796742473</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5210.591525932588</v>
+        <v>8336.946441492142</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2084.236610373036</v>
+        <v>3126.354915559553</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3126.354915559553</v>
+        <v>4168.473220746071</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5210.591525932588</v>
+        <v>4168.473220746071</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>142874.4196410716</v>
+        <v>192791.8864595058</v>
       </c>
     </row>
     <row r="28">
@@ -3179,25 +3222,25 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>111795.2049122609</v>
+        <v>159707.4355889442</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>15657.59172440629</v>
+        <v>13569.91282781878</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>5219.197241468763</v>
+        <v>8350.715586350019</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2087.678896587505</v>
+        <v>3131.518344881258</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3131.518344881258</v>
+        <v>4175.35779317501</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5219.197241468763</v>
+        <v>4175.35779317501</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>143110.3883610735</v>
+        <v>193110.2979343442</v>
       </c>
     </row>
     <row r="29">
@@ -3207,25 +3250,25 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>111979.8437823383</v>
+        <v>159971.2054033405</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>15683.45151013142</v>
+        <v>13592.3246421139</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>5227.817170043806</v>
+        <v>8364.507472070089</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2091.126868017522</v>
+        <v>3136.690302026283</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3136.690302026283</v>
+        <v>4182.253736035044</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5227.817170043806</v>
+        <v>4182.253736035044</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>143346.7468026011</v>
+        <v>193429.2352916208</v>
       </c>
     </row>
     <row r="30">
@@ -3235,25 +3278,25 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>112164.7875985212</v>
+        <v>160235.4108550303</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>15709.35400539512</v>
+        <v>13614.77347134244</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5236.451335131707</v>
+        <v>8378.322136210732</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2094.580534052683</v>
+        <v>3141.870801079025</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3141.870801079025</v>
+        <v>4189.161068105366</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5236.451335131707</v>
+        <v>4189.161068105366</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>143583.4956093114</v>
+        <v>193748.6993998732</v>
       </c>
     </row>
     <row r="31">
@@ -3263,25 +3306,25 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>112350.0368644528</v>
+        <v>160500.0526635039</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>15735.29928073568</v>
+        <v>13637.25937663759</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5245.099760245226</v>
+        <v>8392.159616392362</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2098.039904098091</v>
+        <v>3147.059856147136</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3147.059856147136</v>
+        <v>4196.079808196181</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5245.099760245226</v>
+        <v>4196.079808196181</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>143820.6354259241</v>
+        <v>194068.6911290734</v>
       </c>
     </row>
     <row r="32">
@@ -3291,25 +3334,25 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>112535.5920846081</v>
+        <v>160765.1315494401</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>15761.28740680786</v>
+        <v>13659.78241923348</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5253.762468935953</v>
+        <v>8406.019950297525</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2101.504987574381</v>
+        <v>3152.257481361572</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3152.257481361572</v>
+        <v>4203.009975148762</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5253.762468935953</v>
+        <v>4203.009975148762</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>144058.1668982238</v>
+        <v>194389.2113506303</v>
       </c>
     </row>
     <row r="33">
@@ -3319,25 +3362,25 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>112721.4537642956</v>
+        <v>161030.648234708</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>15787.31845438313</v>
+        <v>13682.34266046538</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5262.439484794378</v>
+        <v>8419.903175671005</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2104.975793917751</v>
+        <v>3157.463690876627</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3157.463690876627</v>
+        <v>4209.951587835502</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>5262.439484794378</v>
+        <v>4209.951587835502</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>144296.0906730618</v>
+        <v>194710.260937392</v>
       </c>
     </row>
     <row r="34">
@@ -3347,25 +3390,25 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>112907.622409658</v>
+        <v>161296.6034423685</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>15813.39249434985</v>
+        <v>13704.94016176987</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5271.13083144995</v>
+        <v>8433.80933031992</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2108.45233257998</v>
+        <v>3162.67849886997</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3162.67849886997</v>
+        <v>4216.90466515996</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5271.13083144995</v>
+        <v>4216.90466515996</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>144534.4073983576</v>
+        <v>195031.8407636482</v>
       </c>
     </row>
     <row r="35">
@@ -3375,25 +3418,25 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>113094.098527674</v>
+        <v>161562.9978966771</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>15839.50959771344</v>
+        <v>13727.57498468498</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5279.836532571148</v>
+        <v>8447.738452113837</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2111.934613028459</v>
+        <v>3167.901919542689</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3167.901919542689</v>
+        <v>4223.869226056919</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5279.836532571148</v>
+        <v>4223.869226056919</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>144773.1177231009</v>
+        <v>195353.9517051325</v>
       </c>
     </row>
     <row r="36">
@@ -3403,25 +3446,25 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>113280.8826261598</v>
+        <v>161829.8323230855</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>15865.66983559661</v>
+        <v>13750.2471908504</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>5288.556611865538</v>
+        <v>8461.690578984861</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2115.422644746215</v>
+        <v>3173.133967119323</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3173.133967119323</v>
+        <v>4230.84528949243</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5288.556611865538</v>
+        <v>4230.84528949243</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>145012.2222973531</v>
+        <v>195676.5946390249</v>
       </c>
     </row>
     <row r="37">
@@ -3431,25 +3474,25 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>113467.9752137702</v>
+        <v>162097.1074482431</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>15891.87327923952</v>
+        <v>13772.95684200759</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5297.291093079841</v>
+        <v>8475.665748927746</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2118.916437231936</v>
+        <v>3178.374655847905</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3178.374655847905</v>
+        <v>4237.832874463873</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5297.291093079841</v>
+        <v>4237.832874463873</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>145251.7217722492</v>
+        <v>195999.7704439541</v>
       </c>
     </row>
     <row r="38">
@@ -3459,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>113655.3768</v>
+        <v>162364.824</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>15918.12</v>
+        <v>13795.704</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>5306.040000000001</v>
+        <v>8489.664000000001</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2122.416</v>
+        <v>3183.624</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>3183.624</v>
+        <v>4244.832</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>5306.040000000001</v>
+        <v>4244.832</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>145491.6168</v>
+        <v>196323.48</v>
       </c>
     </row>
     <row r="39">
@@ -3487,25 +3530,25 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>113843.0878951856</v>
+        <v>162632.982707408</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>15944.41006935372</v>
+        <v>13818.48872677323</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5314.803356451241</v>
+        <v>8503.685370321986</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2125.921342580496</v>
+        <v>3188.882013870745</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>3188.882013870745</v>
+        <v>4251.842685160993</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>5314.803356451241</v>
+        <v>4251.842685160993</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>145731.908033893</v>
+        <v>196647.7241886959</v>
       </c>
     </row>
     <row r="40">
@@ -3515,25 +3558,25 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>114031.1090105061</v>
+        <v>162901.584300723</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>15970.74355889442</v>
+        <v>13841.31108437516</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5323.581186298138</v>
+        <v>8517.729898077021</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2129.432474519255</v>
+        <v>3194.148711778883</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3194.148711778883</v>
+        <v>4258.864949038511</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>5323.581186298138</v>
+        <v>4258.864949038511</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>145972.596128295</v>
+        <v>196972.5038930311</v>
       </c>
     </row>
     <row r="41">
@@ -3543,25 +3586,25 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>114219.4406579851</v>
+        <v>163170.6295114073</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>15997.12054033405</v>
+        <v>13864.17113495618</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5332.373513444682</v>
+        <v>8531.797621511492</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2132.949405377873</v>
+        <v>3199.424108066809</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>3199.424108066809</v>
+        <v>4265.898810755746</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>5332.373513444682</v>
+        <v>4265.898810755746</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>146213.6817386532</v>
+        <v>197297.8199974532</v>
       </c>
     </row>
     <row r="42">
@@ -3571,25 +3614,25 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>114408.0833504916</v>
+        <v>163440.1190721309</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>16023.54108550303</v>
+        <v>13887.06894076929</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5341.180361834342</v>
+        <v>8545.888578934948</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2136.472144733737</v>
+        <v>3204.708217100605</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>3204.708217100605</v>
+        <v>4272.944289467474</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>5341.180361834342</v>
+        <v>4272.944289467474</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>146455.1655214977</v>
+        <v>197623.6733878707</v>
       </c>
     </row>
     <row r="43">
@@ -3599,25 +3642,25 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>114597.0376017418</v>
+        <v>163710.053716774</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>16050.00526635039</v>
+        <v>13910.00456417034</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>5350.001755450131</v>
+        <v>8560.00280872021</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2140.000702180052</v>
+        <v>3210.001053270079</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3210.001053270079</v>
+        <v>4280.001404360105</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>5350.001755450131</v>
+        <v>4280.001404360105</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>146697.0481344426</v>
+        <v>197950.0649516548</v>
       </c>
     </row>
     <row r="44">
@@ -3627,25 +3670,25 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>114786.3039263003</v>
+        <v>163980.4341804289</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>16076.51315494402</v>
+        <v>13932.97806761815</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>5358.837718314672</v>
+        <v>8574.140349303474</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2143.535087325869</v>
+        <v>3215.302630988803</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>3215.302630988803</v>
+        <v>4287.070174651737</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>5358.837718314672</v>
+        <v>4287.070174651737</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>146939.3302361883</v>
+        <v>198276.9955776429</v>
       </c>
     </row>
     <row r="45">
@@ -3655,25 +3698,25 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>114975.8828395815</v>
+        <v>164251.2611994021</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>16103.0648234708</v>
+        <v>13955.98951367469</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>5367.688274490265</v>
+        <v>8588.301239184424</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2147.075309796106</v>
+        <v>3220.612964694159</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>3220.612964694159</v>
+        <v>4294.150619592212</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>5367.688274490265</v>
+        <v>4294.150619592212</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>147182.0124865231</v>
+        <v>198604.4661561398</v>
       </c>
     </row>
     <row r="46">
@@ -3683,25 +3726,25 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>115165.7748578511</v>
+        <v>164522.5355112159</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>16129.66034423685</v>
+        <v>13979.03896500527</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>5376.55344807895</v>
+        <v>8602.485516926321</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2150.62137923158</v>
+        <v>3225.93206884737</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>3225.93206884737</v>
+        <v>4301.24275846316</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>5376.55344807895</v>
+        <v>4301.24275846316</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>147425.0955463248</v>
+        <v>198932.4775789212</v>
       </c>
     </row>
     <row r="47">
@@ -3711,25 +3754,25 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>115355.9804982275</v>
+        <v>164794.2578546107</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>16156.29978966771</v>
+        <v>14002.12648437868</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>5385.433263222571</v>
+        <v>8616.693221156114</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2154.173305289029</v>
+        <v>3231.259957933542</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>3231.259957933542</v>
+        <v>4308.346610578057</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>5385.433263222571</v>
+        <v>4308.346610578057</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>147668.5800775629</v>
+        <v>199261.0307392351</v>
       </c>
     </row>
     <row r="48">
@@ -3739,25 +3782,25 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>115546.500278683</v>
+        <v>165066.4289695472</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>16182.98323230855</v>
+        <v>14025.25213466741</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5394.327744102849</v>
+        <v>8630.924390564558</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2157.73109764114</v>
+        <v>3236.596646461709</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>3236.596646461709</v>
+        <v>4315.462195282279</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5394.327744102849</v>
+        <v>4315.462195282279</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>147912.4667433001</v>
+        <v>199590.1265318054</v>
       </c>
     </row>
     <row r="49">
@@ -3767,25 +3810,25 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>115737.3347180456</v>
+        <v>165339.049597208</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>16209.71074482432</v>
+        <v>14048.41597884774</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>5403.236914941438</v>
+        <v>8645.179063906302</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2161.294765976575</v>
+        <v>3241.942148964863</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>3241.942148964863</v>
+        <v>4322.589531953151</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>5403.236914941438</v>
+        <v>4322.589531953151</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>148156.7562076942</v>
+        <v>199919.7658528332</v>
       </c>
     </row>
     <row r="50">
@@ -3795,25 +3838,25 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>115928.484336</v>
+        <v>165612.12048</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>16236.4824</v>
+        <v>14071.61808</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>5412.1608</v>
+        <v>8659.457280000001</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2164.86432</v>
+        <v>3247.29648</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>3247.29648</v>
+        <v>4329.72864</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>5412.1608</v>
+        <v>4329.72864</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>148401.449136</v>
+        <v>200249.9496</v>
       </c>
     </row>
     <row r="51">
@@ -3823,25 +3866,25 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>116119.9496530893</v>
+        <v>165885.6423615561</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>16263.2982707408</v>
+        <v>14094.85850130869</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>5421.099423580265</v>
+        <v>8673.759077728426</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2168.439769432106</v>
+        <v>3252.659654148159</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>3252.659654148159</v>
+        <v>4336.879538864213</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>5421.099423580265</v>
+        <v>4336.879538864213</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>148646.5461945709</v>
+        <v>200580.6786724698</v>
       </c>
     </row>
     <row r="52">
@@ -3851,25 +3894,25 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>116311.7311907163</v>
+        <v>166159.6159867375</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>16290.1584300723</v>
+        <v>14118.13730606266</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>5430.052810024101</v>
+        <v>8688.084496038562</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2172.021124009641</v>
+        <v>3258.03168601446</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>3258.03168601446</v>
+        <v>4344.042248019281</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>5430.052810024101</v>
+        <v>4344.042248019281</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>148892.0480508608</v>
+        <v>200911.9539708917</v>
       </c>
     </row>
     <row r="53">
@@ -3879,25 +3922,25 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>116503.8294711448</v>
+        <v>166434.0421016354</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>16317.06295114073</v>
+        <v>14141.4545576553</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>5439.020983713576</v>
+        <v>8702.433573941722</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2175.60839348543</v>
+        <v>3263.412590228146</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>3263.412590228146</v>
+        <v>4351.216786970861</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>5439.020983713576</v>
+        <v>4351.216786970861</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>149137.9553734263</v>
+        <v>201243.7763974023</v>
       </c>
     </row>
     <row r="54">
@@ -3907,25 +3950,25 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>116696.2450175015</v>
+        <v>166708.9214535735</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>16344.01190721309</v>
+        <v>14164.81031958468</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>5448.003969071029</v>
+        <v>8716.806350513647</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2179.201587628412</v>
+        <v>3268.802381442617</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>3268.802381442617</v>
+        <v>4358.403175256823</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>5448.003969071029</v>
+        <v>4358.403175256823</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>149384.2688319276</v>
+        <v>201576.1468556281</v>
       </c>
     </row>
     <row r="55">
@@ -3935,25 +3978,25 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>116888.9783537767</v>
+        <v>166984.2547911095</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>16371.0053716774</v>
+        <v>14188.20465545375</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5457.001790559134</v>
+        <v>8731.202864894614</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2182.800716223654</v>
+        <v>3274.20107433548</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>3274.20107433548</v>
+        <v>4365.601432447307</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>5457.001790559134</v>
+        <v>4365.601432447307</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>149630.9890971314</v>
+        <v>201909.066250688</v>
       </c>
     </row>
     <row r="56">
@@ -3963,25 +4006,25 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>117082.0300048263</v>
+        <v>167260.0428640376</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>16398.0434180429</v>
+        <v>14211.63762897051</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>5466.014472680966</v>
+        <v>8745.623156289545</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2186.405789072386</v>
+        <v>3279.608683608579</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>3279.608683608579</v>
+        <v>4372.811578144772</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>5466.014472680966</v>
+        <v>4372.811578144772</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>149878.1168409121</v>
+        <v>202242.5354891957</v>
       </c>
     </row>
     <row r="57">
@@ -3991,25 +4034,25 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>117275.4004963731</v>
+        <v>167536.2864233901</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>16425.12611994021</v>
+        <v>14235.10930394818</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>5475.042039980071</v>
+        <v>8760.067263968112</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2190.016815992028</v>
+        <v>3285.025223988042</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>3285.025223988042</v>
+        <v>4380.033631984056</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>5475.042039980071</v>
+        <v>4380.033631984056</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>150125.6527362535</v>
+        <v>202576.5554792626</v>
       </c>
     </row>
     <row r="58">
@@ -4019,25 +4062,25 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>117469.0903550081</v>
+        <v>167812.9862214402</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>16452.25355112159</v>
+        <v>14258.61974430537</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>5484.084517040528</v>
+        <v>8774.535227264845</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2193.633806816211</v>
+        <v>3290.450710224317</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>3290.450710224317</v>
+        <v>4387.267613632423</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>5484.084517040528</v>
+        <v>4387.267613632423</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>150373.5974572513</v>
+        <v>202911.1271304995</v>
       </c>
     </row>
     <row r="59">
@@ -4047,25 +4090,25 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>117663.1001081921</v>
+        <v>168090.1430117029</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>16479.42578546107</v>
+        <v>14282.16901406626</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>5493.141928487024</v>
+        <v>8789.027085579237</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2197.256771394809</v>
+        <v>3295.885157092214</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>3295.885157092214</v>
+        <v>4394.513542789618</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>5493.141928487024</v>
+        <v>4394.513542789618</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>150621.9516791142</v>
+        <v>203246.2513540199</v>
       </c>
     </row>
     <row r="60">
@@ -4075,25 +4118,25 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>117857.4302842567</v>
+        <v>168367.7575489381</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>16506.64289695472</v>
+        <v>14305.75717736075</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>5502.214298984905</v>
+        <v>8803.542878375849</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2200.885719593962</v>
+        <v>3301.328579390943</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>3301.328579390943</v>
+        <v>4401.771439187924</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>5502.214298984905</v>
+        <v>4401.771439187924</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>150870.7160781661</v>
+        <v>203581.9290624415</v>
       </c>
     </row>
     <row r="61">
@@ -4103,25 +4146,25 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>118052.0814124065</v>
+        <v>168645.8305891522</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>16533.9049597208</v>
+        <v>14329.38429842469</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>5511.301653240267</v>
+        <v>8818.082645184428</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2204.520661296107</v>
+        <v>3306.78099194416</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>3306.78099194416</v>
+        <v>4409.041322592214</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>5511.301653240267</v>
+        <v>4409.041322592214</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>151119.8913318481</v>
+        <v>203918.1611698899</v>
       </c>
     </row>
   </sheetData>
@@ -4202,22 +4245,22 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>56000</v>
+        <v>110000</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>137100</v>
+        <v>185000</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-81100</v>
+        <v>-75000</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-81100</v>
+        <v>-75000</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-3281100</v>
+        <v>-6075000</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.02534375</v>
+        <v>-0.0125</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -4232,22 +4275,22 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>57022.90455798561</v>
+        <v>111779.840929976</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>137326.4317964933</v>
+        <v>185305.5425408552</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-80303.52723850767</v>
+        <v>-73525.70161087923</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-161403.5272385077</v>
+        <v>-148525.7016108792</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-3361403.527238508</v>
+        <v>-6148525.701610879</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-0.05043860226203364</v>
+        <v>-0.0247542836018132</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4262,22 +4305,22 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>57974.53467816659</v>
+        <v>113440.8911302777</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>137553.2375635078</v>
+        <v>185611.5897100579</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-79578.70288534119</v>
+        <v>-72170.69857978023</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-240982.2301238489</v>
+        <v>-220696.4001906594</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-3440982.230123849</v>
+        <v>-6220696.40019066</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>-0.07530694691370277</v>
+        <v>-0.03678273336510991</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -4292,22 +4335,22 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>58789.9826559942</v>
+        <v>114874.9710933237</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>137780.4179186862</v>
+        <v>185918.1423410427</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-78990.43526269203</v>
+        <v>-71043.17124771903</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-319972.6653865409</v>
+        <v>-291739.5714383785</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-3519972.665386541</v>
+        <v>-6291739.571438379</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>-0.09999145793329402</v>
+        <v>-0.04862326190639641</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4322,22 +4365,22 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>59416.50553211151</v>
+        <v>115994.1758868525</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>138007.9734806915</v>
+        <v>186225.2012686209</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-78591.46794857999</v>
+        <v>-70231.02538176838</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-398564.1333351209</v>
+        <v>-361970.5968201469</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-3598564.133335121</v>
+        <v>-6361970.596820147</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>-0.1245512916672253</v>
+        <v>-0.06032843280335781</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4352,22 +4395,22 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>59818.23646383095</v>
+        <v>116738.7274397182</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>138235.9048692081</v>
+        <v>186532.7673289824</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-78417.66840537713</v>
+        <v>-69794.03988926421</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-476981.801740498</v>
+        <v>-431764.6367094111</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-3676981.801740498</v>
+        <v>-6431764.636709411</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>-0.1490568130439056</v>
+        <v>-0.07196077278490184</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4382,22 +4425,22 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>59979.38860337112</v>
+        <v>117082.3143389519</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>138464.2127049441</v>
+        <v>186840.8413596984</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-78484.82410157297</v>
+        <v>-69758.52702074657</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-555466.6258420709</v>
+        <v>-501523.1637301577</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-3755466.625842071</v>
+        <v>-6501523.163730158</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-0.1735833205756472</v>
+        <v>-0.08358719395502627</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -4412,22 +4455,22 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>59905.66528995196</v>
+        <v>117034.4421499199</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>138692.8976096327</v>
+        <v>187149.4241997232</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-78787.23231968074</v>
+        <v>-70114.98204980325</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-634253.8581617516</v>
+        <v>-571638.1457799609</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-3834253.858161752</v>
+        <v>-6571638.145779961</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-0.1982043306755474</v>
+        <v>-0.09527302429666015</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4442,22 +4485,22 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>59623.75058748811</v>
+        <v>116639.5843124802</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>138921.9602060339</v>
+        <v>187458.5166893966</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-79298.20961854575</v>
+        <v>-70818.93237691637</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-713552.0677802974</v>
+        <v>-642457.0781568773</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-3913552.067780297</v>
+        <v>-6642457.078156877</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>-0.2229850211813429</v>
+        <v>-0.1070761796928129</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4472,22 +4515,22 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>59178.92567663134</v>
+        <v>115973.2094610522</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>139151.4011179363</v>
+        <v>187768.1196704464</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-79972.47544130494</v>
+        <v>-71794.91020939421</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-793524.5432216023</v>
+        <v>-714251.9883662715</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3993524.543221602</v>
+        <v>-6714251.988366271</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>-0.2479764197567507</v>
+        <v>-0.1190419980610452</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4502,22 +4545,22 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>58631.02402176164</v>
+        <v>115135.0400362694</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>139381.2209701586</v>
+        <v>188078.2339859909</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-80750.196948397</v>
+        <v>-72943.19394972146</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-874274.7401699993</v>
+        <v>-787195.1823159929</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-4074274.740169999</v>
+        <v>-6787195.182315993</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>-0.2732108563031248</v>
+        <v>-0.1311991970526655</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4532,22 +4575,22 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>58049.08662581323</v>
+        <v>114240.1443763554</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>139611.4203885517</v>
+        <v>188388.8604805403</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-81562.33376273852</v>
+        <v>-74148.7161041849</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-955837.0739327378</v>
+        <v>-861343.8984201777</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-4155837.073932738</v>
+        <v>-6861343.898420177</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>-0.2986990856039806</v>
+        <v>-0.1435573164033629</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -4562,22 +4605,22 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>57505.1948031039</v>
+        <v>113408.6580051732</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>139842</v>
+        <v>188700</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-82336.80519689611</v>
+        <v>-75291.34199482683</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1038173.879129634</v>
+        <v>-936635.2404150045</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-4238173.879129634</v>
+        <v>-6936635.240415005</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>-0.3244293372280106</v>
+        <v>-0.1561058734025008</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4592,22 +4635,22 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>57068.03137020327</v>
+        <v>112755.0522836721</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>140072.9604324231</v>
+        <v>189011.6533916724</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-83004.92906221986</v>
+        <v>-76256.60110800024</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1121178.808191854</v>
+        <v>-1012891.841523005</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4321178.808191854</v>
+        <v>-7012891.841523005</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>-0.3503683775599543</v>
+        <v>-0.1688153069205008</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4622,22 +4665,22 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>56796.74541448331</v>
+        <v>112377.9090241388</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>140304.3023147779</v>
+        <v>189323.821504259</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-83507.55690029461</v>
+        <v>-76945.9124801202</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1204686.365092149</v>
+        <v>-1089837.754003125</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-4404686.365092149</v>
+        <v>-7089837.754003125</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>-0.3764644890912964</v>
+        <v>-0.1816396256671875</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4652,22 +4695,22 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>56735.66868230424</v>
+        <v>112351.1144705071</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>140536.02627706</v>
+        <v>189636.5051878636</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-83800.35759475574</v>
+        <v>-77285.39071735651</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1288486.722686904</v>
+        <v>-1167123.144720481</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-4488486.722686904</v>
+        <v>-7167123.144720482</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-0.4026521008396576</v>
+        <v>-0.1945205241200803</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4682,22 +4725,22 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>56910.35555614323</v>
+        <v>112717.2592602387</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>140768.1329503053</v>
+        <v>189949.7052939933</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-83857.7773941621</v>
+        <v>-77232.4460337546</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1372344.500081066</v>
+        <v>-1244355.590754236</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-4572344.500081066</v>
+        <v>-7244355.590754236</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>-0.4288576562753332</v>
+        <v>-0.2073925984590393</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4712,22 +4755,22 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>57325.30035771512</v>
+        <v>113483.8339295252</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>141000.6229665923</v>
+        <v>190263.4226755621</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-83675.32260887713</v>
+        <v>-76779.58874603691</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1456019.822689943</v>
+        <v>-1321135.179500273</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-4656019.822689943</v>
+        <v>-7321135.179500272</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>-0.4550061945906073</v>
+        <v>-0.2201891965833788</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4742,22 +4785,22 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>57963.53588359883</v>
+        <v>114622.5598059981</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>141233.496959043</v>
+        <v>190577.6581868924</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-83269.96107544414</v>
+        <v>-75955.09838089437</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1539289.783765388</v>
+        <v>-1397090.277881167</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-4739289.783765388</v>
+        <v>-7397090.277881168</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>-0.4810280574266836</v>
+        <v>-0.2328483796468612</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -4772,22 +4815,22 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>58788.14903498637</v>
+        <v>116071.9150583106</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>141466.7555618254</v>
+        <v>190892.4126837176</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-82678.60652683898</v>
+        <v>-74820.49762540701</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1621968.390292227</v>
+        <v>-1471910.775506574</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-4821968.390292227</v>
+        <v>-7471910.775506575</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>-0.5068651219663208</v>
+        <v>-0.2453184625844291</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4802,22 +4845,22 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>59745.5781548629</v>
+        <v>117742.6302581049</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>141700.3994101546</v>
+        <v>191207.6870231845</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-81954.82125529165</v>
+        <v>-73465.05676507961</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1703923.211547518</v>
+        <v>-1545375.832271654</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-4903923.211547518</v>
+        <v>-7545375.832271654</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>-0.5324760036085995</v>
+        <v>-0.2575626387119423</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4832,22 +4875,22 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>60770.39753130774</v>
+        <v>119525.6625521796</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>141934.429140295</v>
+        <v>191523.4820638554</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-81164.03160898725</v>
+        <v>-71997.8195116758</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1785087.243156506</v>
+        <v>-1617373.65178333</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-4985087.243156506</v>
+        <v>-7617373.65178333</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>-0.5578397634864081</v>
+        <v>-0.2695622752972217</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4862,22 +4905,22 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>61791.16168148613</v>
+        <v>121301.9361358102</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>142168.8453895618</v>
+        <v>191839.7986657107</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-80377.6837080757</v>
+        <v>-70537.86252990048</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1865464.926864581</v>
+        <v>-1687911.51431323</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-5065464.926864581</v>
+        <v>-7687911.51431323</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>-0.5829577896451817</v>
+        <v>-0.2813185857188717</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4892,22 +4935,22 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>62736.78736384814</v>
+        <v>122952.9789397469</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>142403.6487963228</v>
+        <v>192156.6376901511</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-79666.86143247464</v>
+        <v>-69203.65875040421</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1945131.788297056</v>
+        <v>-1757115.173063634</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-5145131.788297056</v>
+        <v>-7757115.173063634</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>-0.60785368384283</v>
+        <v>-0.2928525288439391</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4922,22 +4965,22 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>63542.90323239272</v>
+        <v>124371.5053873212</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>142638.84</v>
+        <v>192474</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-79095.93676760729</v>
+        <v>-68102.4946126788</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-2024227.725064663</v>
+        <v>-1825217.667676313</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-5224227.725064663</v>
+        <v>-7825217.667676313</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>-0.6325711640827073</v>
+        <v>-0.3042029446127189</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4952,22 +4995,22 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>64157.59993729179</v>
+        <v>125470.9998954863</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>142874.4196410716</v>
+        <v>192791.8864595058</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-78716.81970377979</v>
+        <v>-67320.88656401944</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-2102944.544768443</v>
+        <v>-1892538.554240333</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-5302944.544768443</v>
+        <v>-7892538.554240333</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-0.6571701702401384</v>
+        <v>-0.3154230923733888</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -4982,22 +5025,22 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>64546.06703251143</v>
+        <v>126193.4450541857</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>143110.3883610735</v>
+        <v>193110.2979343442</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-78564.32132856204</v>
+        <v>-66916.85288015851</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-2181508.866097005</v>
+        <v>-1959455.407120491</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-5381508.866097005</v>
+        <v>-7959455.407120491</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>-0.6817215206553141</v>
+        <v>-0.3265759011867485</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5012,22 +5055,22 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>64693.70248928173</v>
+        <v>126514.5041488029</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>143346.7468026011</v>
+        <v>193429.2352916208</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-78653.04431331942</v>
+        <v>-66914.73114281791</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-2260161.910410325</v>
+        <v>-2026370.138263309</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-5460161.910410324</v>
+        <v>-8026370.138263309</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>-0.7063005970032264</v>
+        <v>-0.3377283563772182</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5042,22 +5085,22 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>64607.41705183836</v>
+        <v>126445.6950863973</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>143583.4956093114</v>
+        <v>193748.6993998732</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-78976.07855747305</v>
+        <v>-67303.0043134759</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-2339137.988967798</v>
+        <v>-2093673.142576785</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5539137.988967798</v>
+        <v>-8093673.142576785</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>-0.7309806215524368</v>
+        <v>-0.3489455237627975</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5072,22 +5115,22 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>64315.0169212219</v>
+        <v>126033.3615353698</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>143820.6354259241</v>
+        <v>194068.6911290734</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-79505.61850470223</v>
+        <v>-68035.32959370356</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-2418643.6074725</v>
+        <v>-2161708.472170488</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-5618643.6074725</v>
+        <v>-8161708.472170489</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>-0.7558261273351562</v>
+        <v>-0.3602847453617481</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5102,22 +5145,22 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>63862.71991015274</v>
+        <v>125354.5331835879</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>144058.1668982238</v>
+        <v>194389.2113506303</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-80195.44698807108</v>
+        <v>-69034.67816704238</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-2498839.054460571</v>
+        <v>-2230743.150337531</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-5698839.054460571</v>
+        <v>-8230743.15033753</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>-0.7808872045189285</v>
+        <v>-0.3717905250562552</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -5132,22 +5175,22 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>63311.02694346907</v>
+        <v>124510.0449057818</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>144296.0906730618</v>
+        <v>194710.260937392</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-80985.06372959277</v>
+        <v>-70200.21603161019</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-2579824.118190164</v>
+        <v>-2300943.366369141</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-5779824.118190164</v>
+        <v>-8300943.366369141</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>-0.8061950369344262</v>
+        <v>-0.3834905610615235</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -5162,22 +5205,22 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>62729.31769069796</v>
+        <v>123615.5294844966</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>144534.4073983576</v>
+        <v>195031.8407636482</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-81805.08970765967</v>
+        <v>-71416.31127915156</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-2661629.207897823</v>
+        <v>-2372359.677648292</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-5861629.207897823</v>
+        <v>-8372359.677648293</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>-0.8317591274680698</v>
+        <v>-0.3953932796080487</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -5192,22 +5235,22 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>62189.65308680663</v>
+        <v>122791.0884780111</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>144773.1177231009</v>
+        <v>195353.9517051325</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-82583.46463629424</v>
+        <v>-72562.86322712144</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-2744212.672534117</v>
+        <v>-2444922.540875414</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-5944212.672534117</v>
+        <v>-8444922.540875414</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>-0.8575664601669117</v>
+        <v>-0.4074870901459023</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -5222,22 +5265,22 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>61760.33834349744</v>
+        <v>122150.5639058291</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>145012.2222973531</v>
+        <v>195676.5946390249</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-83251.88395385562</v>
+        <v>-73526.03073319585</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-2827464.556487973</v>
+        <v>-2518448.57160861</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-6027464.556487974</v>
+        <v>-8518448.57160861</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>-0.8835826739024917</v>
+        <v>-0.419741428601435</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -5252,22 +5295,22 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>61499.82144807649</v>
+        <v>121791.3690801275</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>145251.7217722492</v>
+        <v>195999.7704439541</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-83751.90032417275</v>
+        <v>-74208.40136382665</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-2911216.456812146</v>
+        <v>-2592656.972972437</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-6111216.456812146</v>
+        <v>-8592656.972972438</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>-0.9097551427537957</v>
+        <v>-0.4321094954954061</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -5282,22 +5325,22 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>61451.47217882048</v>
+        <v>121785.7869647008</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>145491.6168</v>
+        <v>196323.48</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-84040.14462117954</v>
+        <v>-74537.69303529925</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-2995256.601433326</v>
+        <v>-2667194.666007736</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-6195256.601433326</v>
+        <v>-8667194.666007737</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>-0.9360176879479143</v>
+        <v>-0.4445324443346227</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -5312,22 +5355,22 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>61639.70801184923</v>
+        <v>122174.513353082</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>145731.908033893</v>
+        <v>196647.7241886959</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-84092.20002204381</v>
+        <v>-74473.21083561388</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-3079348.801455369</v>
+        <v>-2741667.87684335</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-6279348.801455369</v>
+        <v>-8741667.87684335</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>-0.9622965004548029</v>
+        <v>-0.4569446461405584</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -5342,22 +5385,22 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>62067.81298070538</v>
+        <v>122963.021634509</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>145972.596128295</v>
+        <v>196972.5038930311</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-83904.78314758959</v>
+        <v>-74009.48225852217</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-3163253.584602959</v>
+        <v>-2815677.359101872</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-6363253.584602959</v>
+        <v>-8815677.359101873</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>-0.9885167451884247</v>
+        <v>-0.469279559850312</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -5372,22 +5415,22 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>62717.64432341861</v>
+        <v>124121.0738723643</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>146213.6817386532</v>
+        <v>197297.8199974532</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-83496.03741523458</v>
+        <v>-73176.7461250889</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-3246749.622018193</v>
+        <v>-2888854.105226961</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-6446749.622018194</v>
+        <v>-8888854.10522696</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>-1.014609256880685</v>
+        <v>-0.4814756842044935</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -5402,22 +5445,22 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>63551.25312139883</v>
+        <v>125585.421868998</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>146455.1655214977</v>
+        <v>197623.6733878707</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-82903.91240009884</v>
+        <v>-72038.25151887262</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-3329653.534418292</v>
+        <v>-2960892.356745834</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-6529653.534418292</v>
+        <v>-8960892.356745834</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>-1.040516729505716</v>
+        <v>-0.4934820594576389</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -5432,22 +5475,22 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>64514.27416331234</v>
+        <v>127265.4569388539</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>146697.0481344426</v>
+        <v>197950.0649516548</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-82182.77397113026</v>
+        <v>-70684.60801280095</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-3411836.308389422</v>
+        <v>-3031576.964758635</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-6611836.308389422</v>
+        <v>-9031576.964758635</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>-1.066198846371694</v>
+        <v>-0.5052628274597725</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -5462,22 +5505,22 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>65540.78222749707</v>
+        <v>129051.3037124951</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>146939.3302361883</v>
+        <v>198276.9955776429</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-81398.54800869124</v>
+        <v>-69225.69186514776</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>-3493234.856398114</v>
+        <v>-3100802.656623782</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-6693234.856398113</v>
+        <v>-9100802.656623783</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>-1.091635892624411</v>
+        <v>-0.5168004427706303</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5492,22 +5535,22 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>66559.18098567177</v>
+        <v>130823.6349761196</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>147182.0124865231</v>
+        <v>198604.4661561398</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-80622.8315008513</v>
+        <v>-67780.83118002021</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-3573857.687898965</v>
+        <v>-3168583.487803802</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-6773857.687898965</v>
+        <v>-9168583.487803802</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>-1.116830527468426</v>
+        <v>-0.5280972479673004</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5522,22 +5565,22 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>67498.5984897095</v>
+        <v>132464.3308161825</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>147425.0955463248</v>
+        <v>198932.4775789212</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-79926.49705661532</v>
+        <v>-66468.14676273864</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-3653784.18495558</v>
+        <v>-3235051.634566541</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-6853784.18495558</v>
+        <v>-9235051.634566542</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>-1.141807557798619</v>
+        <v>-0.5391752724277568</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5552,22 +5595,22 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>68295.21795168938</v>
+        <v>133867.0299194823</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>147668.5800775629</v>
+        <v>199261.0307392351</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-79373.36212587351</v>
+        <v>-65394.00081975284</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-3733157.547081454</v>
+        <v>-3300445.635386294</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-6933157.547081454</v>
+        <v>-9300445.635386294</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>-1.166611733462954</v>
+        <v>-0.5500742725643822</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -5582,22 +5625,22 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>68897.97830749908</v>
+        <v>134946.6305124985</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>147912.4667433001</v>
+        <v>199590.1265318054</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-79014.48843580103</v>
+        <v>-64643.49601930694</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>-3812172.035517255</v>
+        <v>-3365089.131405601</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-7012172.035517255</v>
+        <v>-9365089.131405601</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>-1.191303761099142</v>
+        <v>-0.5608481885676001</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -5612,22 +5655,22 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>69273.13534961938</v>
+        <v>135646.8922493656</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>148156.7562076942</v>
+        <v>199919.7658528332</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-78883.62085807486</v>
+        <v>-64272.8736034676</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>-3891055.65637533</v>
+        <v>-3429362.005009068</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-7091055.65637533</v>
+        <v>-9429362.005009068</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>-1.215954892617291</v>
+        <v>-0.571560334168178</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -5642,22 +5685,22 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>69407.27599668305</v>
+        <v>135945.4599944717</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>148401.449136</v>
+        <v>200249.9496</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-78994.17313931696</v>
+        <v>-64304.48960552824</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>-3970049.829514647</v>
+        <v>-3493666.494614596</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-7170049.829514647</v>
+        <v>-9493666.494614597</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>-1.240640571723327</v>
+        <v>-0.5822777491024328</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -5672,22 +5715,22 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>69308.51644408592</v>
+        <v>135855.8607401432</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>148646.5461945709</v>
+        <v>200580.6786724698</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-79338.02975048497</v>
+        <v>-64724.81793232661</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>-4049387.859265132</v>
+        <v>-3558391.312546923</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-7249387.859265132</v>
+        <v>-9558391.312546924</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>-1.265433706020354</v>
+        <v>-0.5930652187578206</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -5702,22 +5745,22 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>69005.77716842422</v>
+        <v>135426.295280707</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>148892.0480508608</v>
+        <v>200911.9539708917</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-79886.27088243663</v>
+        <v>-65485.6586901847</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-4129274.130147568</v>
+        <v>-3623876.971237108</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-7329274.130147569</v>
+        <v>-9623876.971237108</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>-1.290398165671115</v>
+        <v>-0.6039794952061847</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -5732,22 +5775,22 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>68521.19954745265</v>
+        <v>134710.3325790878</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>149137.9553734263</v>
+        <v>201243.7763974023</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-80616.75582597361</v>
+        <v>-66533.44381831455</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-4209890.885973542</v>
+        <v>-3690410.415055423</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-7409890.885973542</v>
+        <v>-9690410.415055422</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>-1.315590901866732</v>
+        <v>-0.6150684025092371</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5762,22 +5805,22 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>67940.9348612085</v>
+        <v>133834.8914353475</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>149384.2688319276</v>
+        <v>201576.1468556281</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-81443.33397071912</v>
+        <v>-67741.25542028059</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-4291334.219944261</v>
+        <v>-3758151.670475703</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-7491334.219944261</v>
+        <v>-9758151.670475703</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>-1.341041943732582</v>
+        <v>-0.6263586117459505</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -5792,22 +5835,22 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>67334.6818302897</v>
+        <v>132916.1363838162</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>149630.9890971314</v>
+        <v>201909.066250688</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-82296.30726684174</v>
+        <v>-68992.9298668718</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>-4373630.527211103</v>
+        <v>-3827144.600342575</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-7573630.527211103</v>
+        <v>-9827144.600342575</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>-1.36675953975347</v>
+        <v>-0.6378574333904292</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5822,22 +5865,22 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>66774.46063672414</v>
+        <v>132074.1010612069</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>149878.1168409121</v>
+        <v>202242.5354891957</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-83103.65620418795</v>
+        <v>-70168.43442798883</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-4456734.183415291</v>
+        <v>-3897313.034770564</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-7656734.183415291</v>
+        <v>-9897313.034770563</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>-1.392729432317278</v>
+        <v>-0.6495521724617607</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5852,22 +5895,22 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>66328.17957560337</v>
+        <v>131421.9659593389</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>150125.6527362535</v>
+        <v>202576.5554792626</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-83797.47316065017</v>
+        <v>-71154.58951992367</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>-4540531.656575941</v>
+        <v>-3968467.624290487</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-7740531.656575941</v>
+        <v>-9968467.624290487</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>-1.418916142679982</v>
+        <v>-0.6614112707150812</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5882,22 +5925,22 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>66053.56900932993</v>
+        <v>131055.9483488832</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>150373.5974572513</v>
+        <v>202911.1271304995</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-84320.02844792134</v>
+        <v>-71855.17878161631</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-4624851.685023863</v>
+        <v>-4040322.803072104</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-7824851.685023863</v>
+        <v>-10040322.8030721</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>-1.445266151569957</v>
+        <v>-0.6733871338453506</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5912,22 +5955,22 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>65993.02448627958</v>
+        <v>131046.7074771326</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>150621.9516791142</v>
+        <v>203246.2513540199</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-84628.92719283458</v>
+        <v>-72199.54387688724</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>-4709480.612216697</v>
+        <v>-4112522.346948991</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-7909480.612216697</v>
+        <v>-10112522.34694899</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>-1.471712691317718</v>
+        <v>-0.6854203911581652</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5942,22 +5985,22 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>66169.8196727293</v>
+        <v>131433.0327878821</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>150870.7160781661</v>
+        <v>203581.9290624415</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-84700.8964054368</v>
+        <v>-72148.89627455937</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-4794181.508622134</v>
+        <v>-4184671.24322355</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-7994181.508622134</v>
+        <v>-10184671.24322355</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>-1.498181721444417</v>
+        <v>-0.697445207203925</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5972,22 +6015,22 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>66586.02738556379</v>
+        <v>132218.3789759397</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>151119.8913318481</v>
+        <v>203918.1611698899</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-84533.86394628434</v>
+        <v>-71699.7821939502</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-4878715.372568418</v>
+        <v>-4256371.0254175</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-8078715.372568418</v>
+        <v>-10256371.0254175</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>-1.524598553927631</v>
+        <v>-0.7093951709029167</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -6021,7 +6064,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GridEdge Compute Center - Phase I Financial Model (2.5MW Modular)</t>
+          <t>GridEdge Compute Center - 5MW Strategic Deployment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -6045,7 +6088,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3200000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5">
@@ -6056,7 +6099,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.5 MW</t>
+          <t>5.0 MW</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6134,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>58699.16705775886</v>
+        <v>114911.1117629314</v>
       </c>
     </row>
     <row r="10">
@@ -6101,7 +6144,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>704390.0046931063</v>
+        <v>1378933.341155177</v>
       </c>
     </row>
     <row r="11">
@@ -6123,7 +6166,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>138352.2565521537</v>
+        <v>186689.7699646129</v>
       </c>
     </row>
     <row r="14">
@@ -6133,7 +6176,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1660227.078625844</v>
+        <v>2240277.239575355</v>
       </c>
     </row>
     <row r="15">
@@ -6143,7 +6186,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-79653.08949439481</v>
+        <v>-71778.65820168146</v>
       </c>
     </row>
     <row r="16">
@@ -6177,7 +6220,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4878715.372568418</v>
+        <v>-4256371.0254175</v>
       </c>
     </row>
     <row r="20">
@@ -6187,7 +6230,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.524598553927631</v>
+        <v>-0.7093951709029167</v>
       </c>
     </row>
     <row r="21">
@@ -6222,7 +6265,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$0.07/kWh</t>
+          <t>$0.05/kWh</t>
         </is>
       </c>
     </row>
@@ -6700,4 +6743,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="70" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Asset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Financing Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Example Lenders/Platforms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bitcoin (self-mined)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BTC-backed Line of Credit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unchained, Ledn, Local El Salvador Lenders</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Use freshly mined BTC as collateral for stablecoin loans (Liquid USDt).</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPUs (NVIDIA A6000/H100)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hardware-backed Leasing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Coreweave, Lambda, Hydra Host</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Finance GPU acquisition via lease-to-own or sale-leaseback agreements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ASIC Miners (S21/T21)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Equipment Financing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Asset-backed loans from crypto-friendly funds</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Use the hardware itself as collateral for financing the purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Modular Containers/Infra</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Equipment-based Financing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Private credit, off-balance sheet leasing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Collateralize the physical infrastructure for private loans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Forward Sales</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prepaid GPU Contracts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Direct sales to AI startups, render farms</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sell future GPU access at a discount to fund current OpEx and CapEx.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Carbon Credits</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Green Financing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ESG funds, Methane capture grants</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Monetize methane flaring partnerships for carbon credits and grant funding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sovereign Partnership</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Government Grants/Loans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>El Salvador National Bitcoin Office</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Explore partnerships for building sovereign AI infrastructure, potentially unlocking grants.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/financial_model.xlsx
+++ b/financial_model.xlsx
@@ -6064,7 +6064,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GridEdge Compute Center - 5MW Strategic Deployment</t>
+          <t>GridEdge Compute Center - Phase I 5MW Modular Launch</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6000000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="5">
